--- a/Dashboard01.xlsx
+++ b/Dashboard01.xlsx
@@ -2526,7 +2526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EY22"/>
+  <dimension ref="A1:KV22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2689,6 +2689,159 @@
     <col width="8.6" customWidth="1" min="153" max="153"/>
     <col width="8.6" customWidth="1" min="154" max="154"/>
     <col width="8.6" customWidth="1" min="155" max="155"/>
+    <col width="8.6" customWidth="1" min="156" max="156"/>
+    <col width="8.6" customWidth="1" min="157" max="157"/>
+    <col width="8.6" customWidth="1" min="158" max="158"/>
+    <col width="8.6" customWidth="1" min="159" max="159"/>
+    <col width="8.6" customWidth="1" min="160" max="160"/>
+    <col width="8.6" customWidth="1" min="161" max="161"/>
+    <col width="8.6" customWidth="1" min="162" max="162"/>
+    <col width="8.6" customWidth="1" min="163" max="163"/>
+    <col width="8.6" customWidth="1" min="164" max="164"/>
+    <col width="8.6" customWidth="1" min="165" max="165"/>
+    <col width="8.6" customWidth="1" min="166" max="166"/>
+    <col width="8.6" customWidth="1" min="167" max="167"/>
+    <col width="8.6" customWidth="1" min="168" max="168"/>
+    <col width="8.6" customWidth="1" min="169" max="169"/>
+    <col width="8.6" customWidth="1" min="170" max="170"/>
+    <col width="8.6" customWidth="1" min="171" max="171"/>
+    <col width="8.6" customWidth="1" min="172" max="172"/>
+    <col width="8.6" customWidth="1" min="173" max="173"/>
+    <col width="8.6" customWidth="1" min="174" max="174"/>
+    <col width="8.6" customWidth="1" min="175" max="175"/>
+    <col width="8.6" customWidth="1" min="176" max="176"/>
+    <col width="8.6" customWidth="1" min="177" max="177"/>
+    <col width="8.6" customWidth="1" min="178" max="178"/>
+    <col width="8.6" customWidth="1" min="179" max="179"/>
+    <col width="8.6" customWidth="1" min="180" max="180"/>
+    <col width="8.6" customWidth="1" min="181" max="181"/>
+    <col width="8.6" customWidth="1" min="182" max="182"/>
+    <col width="8.6" customWidth="1" min="183" max="183"/>
+    <col width="8.6" customWidth="1" min="184" max="184"/>
+    <col width="8.6" customWidth="1" min="185" max="185"/>
+    <col width="8.6" customWidth="1" min="186" max="186"/>
+    <col width="8.6" customWidth="1" min="187" max="187"/>
+    <col width="8.6" customWidth="1" min="188" max="188"/>
+    <col width="8.6" customWidth="1" min="189" max="189"/>
+    <col width="8.6" customWidth="1" min="190" max="190"/>
+    <col width="8.6" customWidth="1" min="191" max="191"/>
+    <col width="8.6" customWidth="1" min="192" max="192"/>
+    <col width="8.6" customWidth="1" min="193" max="193"/>
+    <col width="8.6" customWidth="1" min="194" max="194"/>
+    <col width="8.6" customWidth="1" min="195" max="195"/>
+    <col width="8.6" customWidth="1" min="196" max="196"/>
+    <col width="8.6" customWidth="1" min="197" max="197"/>
+    <col width="8.6" customWidth="1" min="198" max="198"/>
+    <col width="8.6" customWidth="1" min="199" max="199"/>
+    <col width="8.6" customWidth="1" min="200" max="200"/>
+    <col width="8.6" customWidth="1" min="201" max="201"/>
+    <col width="8.6" customWidth="1" min="202" max="202"/>
+    <col width="8.6" customWidth="1" min="203" max="203"/>
+    <col width="8.6" customWidth="1" min="204" max="204"/>
+    <col width="8.6" customWidth="1" min="205" max="205"/>
+    <col width="8.6" customWidth="1" min="206" max="206"/>
+    <col width="8.6" customWidth="1" min="207" max="207"/>
+    <col width="8.6" customWidth="1" min="208" max="208"/>
+    <col width="8.6" customWidth="1" min="209" max="209"/>
+    <col width="8.6" customWidth="1" min="210" max="210"/>
+    <col width="8.6" customWidth="1" min="211" max="211"/>
+    <col width="8.6" customWidth="1" min="212" max="212"/>
+    <col width="8.6" customWidth="1" min="213" max="213"/>
+    <col width="8.6" customWidth="1" min="214" max="214"/>
+    <col width="8.6" customWidth="1" min="215" max="215"/>
+    <col width="8.6" customWidth="1" min="216" max="216"/>
+    <col width="8.6" customWidth="1" min="217" max="217"/>
+    <col width="8.6" customWidth="1" min="218" max="218"/>
+    <col width="8.6" customWidth="1" min="219" max="219"/>
+    <col width="8.6" customWidth="1" min="220" max="220"/>
+    <col width="8.6" customWidth="1" min="221" max="221"/>
+    <col width="8.6" customWidth="1" min="222" max="222"/>
+    <col width="8.6" customWidth="1" min="223" max="223"/>
+    <col width="8.6" customWidth="1" min="224" max="224"/>
+    <col width="8.6" customWidth="1" min="225" max="225"/>
+    <col width="8.6" customWidth="1" min="226" max="226"/>
+    <col width="8.6" customWidth="1" min="227" max="227"/>
+    <col width="8.6" customWidth="1" min="228" max="228"/>
+    <col width="8.6" customWidth="1" min="229" max="229"/>
+    <col width="8.6" customWidth="1" min="230" max="230"/>
+    <col width="8.6" customWidth="1" min="231" max="231"/>
+    <col width="8.6" customWidth="1" min="232" max="232"/>
+    <col width="8.6" customWidth="1" min="233" max="233"/>
+    <col width="8.6" customWidth="1" min="234" max="234"/>
+    <col width="8.6" customWidth="1" min="235" max="235"/>
+    <col width="8.6" customWidth="1" min="236" max="236"/>
+    <col width="8.6" customWidth="1" min="237" max="237"/>
+    <col width="8.6" customWidth="1" min="238" max="238"/>
+    <col width="8.6" customWidth="1" min="239" max="239"/>
+    <col width="8.6" customWidth="1" min="240" max="240"/>
+    <col width="8.6" customWidth="1" min="241" max="241"/>
+    <col width="8.6" customWidth="1" min="242" max="242"/>
+    <col width="8.6" customWidth="1" min="243" max="243"/>
+    <col width="8.6" customWidth="1" min="244" max="244"/>
+    <col width="8.6" customWidth="1" min="245" max="245"/>
+    <col width="8.6" customWidth="1" min="246" max="246"/>
+    <col width="8.6" customWidth="1" min="247" max="247"/>
+    <col width="8.6" customWidth="1" min="248" max="248"/>
+    <col width="8.6" customWidth="1" min="249" max="249"/>
+    <col width="8.6" customWidth="1" min="250" max="250"/>
+    <col width="8.6" customWidth="1" min="251" max="251"/>
+    <col width="8.6" customWidth="1" min="252" max="252"/>
+    <col width="8.6" customWidth="1" min="253" max="253"/>
+    <col width="8.6" customWidth="1" min="254" max="254"/>
+    <col width="8.6" customWidth="1" min="255" max="255"/>
+    <col width="8.6" customWidth="1" min="256" max="256"/>
+    <col width="8.6" customWidth="1" min="257" max="257"/>
+    <col width="8.6" customWidth="1" min="258" max="258"/>
+    <col width="8.6" customWidth="1" min="259" max="259"/>
+    <col width="8.6" customWidth="1" min="260" max="260"/>
+    <col width="8.6" customWidth="1" min="261" max="261"/>
+    <col width="8.6" customWidth="1" min="262" max="262"/>
+    <col width="8.6" customWidth="1" min="263" max="263"/>
+    <col width="8.6" customWidth="1" min="264" max="264"/>
+    <col width="8.6" customWidth="1" min="265" max="265"/>
+    <col width="8.6" customWidth="1" min="266" max="266"/>
+    <col width="8.6" customWidth="1" min="267" max="267"/>
+    <col width="8.6" customWidth="1" min="268" max="268"/>
+    <col width="8.6" customWidth="1" min="269" max="269"/>
+    <col width="8.6" customWidth="1" min="270" max="270"/>
+    <col width="8.6" customWidth="1" min="271" max="271"/>
+    <col width="8.6" customWidth="1" min="272" max="272"/>
+    <col width="8.6" customWidth="1" min="273" max="273"/>
+    <col width="8.6" customWidth="1" min="274" max="274"/>
+    <col width="8.6" customWidth="1" min="275" max="275"/>
+    <col width="8.6" customWidth="1" min="276" max="276"/>
+    <col width="8.6" customWidth="1" min="277" max="277"/>
+    <col width="8.6" customWidth="1" min="278" max="278"/>
+    <col width="8.6" customWidth="1" min="279" max="279"/>
+    <col width="8.6" customWidth="1" min="280" max="280"/>
+    <col width="8.6" customWidth="1" min="281" max="281"/>
+    <col width="8.6" customWidth="1" min="282" max="282"/>
+    <col width="8.6" customWidth="1" min="283" max="283"/>
+    <col width="8.6" customWidth="1" min="284" max="284"/>
+    <col width="8.6" customWidth="1" min="285" max="285"/>
+    <col width="8.6" customWidth="1" min="286" max="286"/>
+    <col width="8.6" customWidth="1" min="287" max="287"/>
+    <col width="8.6" customWidth="1" min="288" max="288"/>
+    <col width="8.6" customWidth="1" min="289" max="289"/>
+    <col width="8.6" customWidth="1" min="290" max="290"/>
+    <col width="8.6" customWidth="1" min="291" max="291"/>
+    <col width="8.6" customWidth="1" min="292" max="292"/>
+    <col width="8.6" customWidth="1" min="293" max="293"/>
+    <col width="8.6" customWidth="1" min="294" max="294"/>
+    <col width="8.6" customWidth="1" min="295" max="295"/>
+    <col width="8.6" customWidth="1" min="296" max="296"/>
+    <col width="8.6" customWidth="1" min="297" max="297"/>
+    <col width="8.6" customWidth="1" min="298" max="298"/>
+    <col width="8.6" customWidth="1" min="299" max="299"/>
+    <col width="8.6" customWidth="1" min="300" max="300"/>
+    <col width="8.6" customWidth="1" min="301" max="301"/>
+    <col width="8.6" customWidth="1" min="302" max="302"/>
+    <col width="8.6" customWidth="1" min="303" max="303"/>
+    <col width="8.6" customWidth="1" min="304" max="304"/>
+    <col width="8.6" customWidth="1" min="305" max="305"/>
+    <col width="8.6" customWidth="1" min="306" max="306"/>
+    <col width="8.6" customWidth="1" min="307" max="307"/>
+    <col width="8.6" customWidth="1" min="308" max="308"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2707,767 +2860,1532 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>31-05-2025</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>31-03-2025</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>31-01-2025</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>30-05-2025</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>30-04-2025</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>30-03-2025</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>30-01-2025</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>29-05-2025</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>29-04-2025</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>29-03-2025</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>29-01-2025</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>28-05-2025</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>28-04-2025</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>28-03-2025</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>28-02-2025</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>28-01-2025</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>27-05-2025</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>27-04-2025</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>27-03-2025</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>27-02-2025</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>27-01-2025</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>26-06-2025</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>26-05-2025</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>26-04-2025</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>26-03-2025</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>26-02-2025</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>26-01-2025</t>
+        </is>
+      </c>
+      <c r="AD2" s="2" t="inlineStr">
+        <is>
+          <t>25-06-2025</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>25-05-2025</t>
+        </is>
+      </c>
+      <c r="AF2" s="2" t="inlineStr">
+        <is>
+          <t>25-04-2025</t>
+        </is>
+      </c>
+      <c r="AG2" s="2" t="inlineStr">
+        <is>
+          <t>25-03-2025</t>
+        </is>
+      </c>
+      <c r="AH2" s="2" t="inlineStr">
+        <is>
+          <t>25-02-2025</t>
+        </is>
+      </c>
+      <c r="AI2" s="2" t="inlineStr">
+        <is>
+          <t>25-01-2025</t>
+        </is>
+      </c>
+      <c r="AJ2" s="2" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+      <c r="AK2" s="2" t="inlineStr">
+        <is>
+          <t>24-05-2025</t>
+        </is>
+      </c>
+      <c r="AL2" s="2" t="inlineStr">
+        <is>
+          <t>24-04-2025</t>
+        </is>
+      </c>
+      <c r="AM2" s="2" t="inlineStr">
+        <is>
+          <t>24-03-2025</t>
+        </is>
+      </c>
+      <c r="AN2" s="2" t="inlineStr">
+        <is>
+          <t>24-02-2025</t>
+        </is>
+      </c>
+      <c r="AO2" s="2" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+      <c r="AP2" s="2" t="inlineStr">
+        <is>
+          <t>23-05-2025</t>
+        </is>
+      </c>
+      <c r="AQ2" s="2" t="inlineStr">
+        <is>
+          <t>23-04-2025</t>
+        </is>
+      </c>
+      <c r="AR2" s="2" t="inlineStr">
+        <is>
+          <t>23-03-2025</t>
+        </is>
+      </c>
+      <c r="AS2" s="2" t="inlineStr">
+        <is>
+          <t>23-02-2025</t>
+        </is>
+      </c>
+      <c r="AT2" s="2" t="inlineStr">
+        <is>
+          <t>22-06-2025</t>
+        </is>
+      </c>
+      <c r="AU2" s="2" t="inlineStr">
+        <is>
+          <t>22-05-2025</t>
+        </is>
+      </c>
+      <c r="AV2" s="2" t="inlineStr">
+        <is>
+          <t>22-04-2025</t>
+        </is>
+      </c>
+      <c r="AW2" s="2" t="inlineStr">
+        <is>
+          <t>22-03-2025</t>
+        </is>
+      </c>
+      <c r="AX2" s="2" t="inlineStr">
+        <is>
+          <t>22-02-2025</t>
+        </is>
+      </c>
+      <c r="AY2" s="2" t="inlineStr">
+        <is>
+          <t>21-06-2025</t>
+        </is>
+      </c>
+      <c r="AZ2" s="2" t="inlineStr">
+        <is>
+          <t>21-05-2025</t>
+        </is>
+      </c>
+      <c r="BA2" s="2" t="inlineStr">
+        <is>
+          <t>21-04-2025</t>
+        </is>
+      </c>
+      <c r="BB2" s="2" t="inlineStr">
+        <is>
+          <t>21-03-2025</t>
+        </is>
+      </c>
+      <c r="BC2" s="2" t="inlineStr">
+        <is>
+          <t>21-02-2025</t>
+        </is>
+      </c>
+      <c r="BD2" s="2" t="inlineStr">
+        <is>
           <t>2025-06-26</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="BE2" s="2" t="inlineStr">
         <is>
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="BF2" s="2" t="inlineStr">
         <is>
           <t>2025-06-24</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="BG2" s="2" t="inlineStr">
         <is>
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="BH2" s="2" t="inlineStr">
         <is>
           <t>2025-06-22</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="BI2" s="2" t="inlineStr">
         <is>
           <t>2025-06-21</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="BJ2" s="2" t="inlineStr">
         <is>
           <t>2025-06-20</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="BK2" s="2" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="BL2" s="2" t="inlineStr">
         <is>
           <t>2025-06-18</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="BM2" s="2" t="inlineStr">
         <is>
           <t>2025-06-17</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="BN2" s="2" t="inlineStr">
         <is>
           <t>2025-06-16</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="BO2" s="2" t="inlineStr">
         <is>
           <t>2025-06-15</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="BP2" s="2" t="inlineStr">
         <is>
           <t>2025-06-14</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="BQ2" s="2" t="inlineStr">
         <is>
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="BR2" s="2" t="inlineStr">
         <is>
           <t>2025-06-12</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="BS2" s="2" t="inlineStr">
         <is>
           <t>2025-06-11</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="BT2" s="2" t="inlineStr">
         <is>
           <t>2025-06-10</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="BU2" s="2" t="inlineStr">
         <is>
           <t>2025-06-09</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr">
+      <c r="BV2" s="2" t="inlineStr">
         <is>
           <t>2025-06-08</t>
         </is>
       </c>
-      <c r="V2" s="2" t="inlineStr">
+      <c r="BW2" s="2" t="inlineStr">
         <is>
           <t>2025-06-07</t>
         </is>
       </c>
-      <c r="W2" s="2" t="inlineStr">
+      <c r="BX2" s="2" t="inlineStr">
         <is>
           <t>2025-06-06</t>
         </is>
       </c>
-      <c r="X2" s="2" t="inlineStr">
+      <c r="BY2" s="2" t="inlineStr">
         <is>
           <t>2025-06-05</t>
         </is>
       </c>
-      <c r="Y2" s="2" t="inlineStr">
+      <c r="BZ2" s="2" t="inlineStr">
         <is>
           <t>2025-06-04</t>
         </is>
       </c>
-      <c r="Z2" s="2" t="inlineStr">
+      <c r="CA2" s="2" t="inlineStr">
         <is>
           <t>2025-06-03</t>
         </is>
       </c>
-      <c r="AA2" s="2" t="inlineStr">
+      <c r="CB2" s="2" t="inlineStr">
         <is>
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="AB2" s="2" t="inlineStr">
+      <c r="CC2" s="2" t="inlineStr">
         <is>
           <t>2025-06-01</t>
         </is>
       </c>
-      <c r="AC2" s="2" t="inlineStr">
+      <c r="CD2" s="2" t="inlineStr">
         <is>
           <t>2025-05-31</t>
         </is>
       </c>
-      <c r="AD2" s="2" t="inlineStr">
+      <c r="CE2" s="2" t="inlineStr">
         <is>
           <t>2025-05-30</t>
         </is>
       </c>
-      <c r="AE2" s="2" t="inlineStr">
+      <c r="CF2" s="2" t="inlineStr">
         <is>
           <t>2025-05-29</t>
         </is>
       </c>
-      <c r="AF2" s="2" t="inlineStr">
+      <c r="CG2" s="2" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="AG2" s="2" t="inlineStr">
+      <c r="CH2" s="2" t="inlineStr">
         <is>
           <t>2025-05-27</t>
         </is>
       </c>
-      <c r="AH2" s="2" t="inlineStr">
+      <c r="CI2" s="2" t="inlineStr">
         <is>
           <t>2025-05-26</t>
         </is>
       </c>
-      <c r="AI2" s="2" t="inlineStr">
+      <c r="CJ2" s="2" t="inlineStr">
         <is>
           <t>2025-05-25</t>
         </is>
       </c>
-      <c r="AJ2" s="2" t="inlineStr">
+      <c r="CK2" s="2" t="inlineStr">
         <is>
           <t>2025-05-24</t>
         </is>
       </c>
-      <c r="AK2" s="2" t="inlineStr">
+      <c r="CL2" s="2" t="inlineStr">
         <is>
           <t>2025-05-23</t>
         </is>
       </c>
-      <c r="AL2" s="2" t="inlineStr">
+      <c r="CM2" s="2" t="inlineStr">
         <is>
           <t>2025-05-22</t>
         </is>
       </c>
-      <c r="AM2" s="2" t="inlineStr">
+      <c r="CN2" s="2" t="inlineStr">
         <is>
           <t>2025-05-21</t>
         </is>
       </c>
-      <c r="AN2" s="2" t="inlineStr">
+      <c r="CO2" s="2" t="inlineStr">
         <is>
           <t>2025-05-20</t>
         </is>
       </c>
-      <c r="AO2" s="2" t="inlineStr">
+      <c r="CP2" s="2" t="inlineStr">
         <is>
           <t>2025-05-19</t>
         </is>
       </c>
-      <c r="AP2" s="2" t="inlineStr">
+      <c r="CQ2" s="2" t="inlineStr">
         <is>
           <t>2025-05-18</t>
         </is>
       </c>
-      <c r="AQ2" s="2" t="inlineStr">
+      <c r="CR2" s="2" t="inlineStr">
         <is>
           <t>2025-05-17</t>
         </is>
       </c>
-      <c r="AR2" s="2" t="inlineStr">
+      <c r="CS2" s="2" t="inlineStr">
         <is>
           <t>2025-05-16</t>
         </is>
       </c>
-      <c r="AS2" s="2" t="inlineStr">
+      <c r="CT2" s="2" t="inlineStr">
         <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="AT2" s="2" t="inlineStr">
+      <c r="CU2" s="2" t="inlineStr">
         <is>
           <t>2025-05-14</t>
         </is>
       </c>
-      <c r="AU2" s="2" t="inlineStr">
+      <c r="CV2" s="2" t="inlineStr">
         <is>
           <t>2025-05-13</t>
         </is>
       </c>
-      <c r="AV2" s="2" t="inlineStr">
+      <c r="CW2" s="2" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="AW2" s="2" t="inlineStr">
+      <c r="CX2" s="2" t="inlineStr">
         <is>
           <t>2025-05-11</t>
         </is>
       </c>
-      <c r="AX2" s="2" t="inlineStr">
+      <c r="CY2" s="2" t="inlineStr">
         <is>
           <t>2025-05-10</t>
         </is>
       </c>
-      <c r="AY2" s="2" t="inlineStr">
+      <c r="CZ2" s="2" t="inlineStr">
         <is>
           <t>2025-05-09</t>
         </is>
       </c>
-      <c r="AZ2" s="2" t="inlineStr">
+      <c r="DA2" s="2" t="inlineStr">
         <is>
           <t>2025-05-08</t>
         </is>
       </c>
-      <c r="BA2" s="2" t="inlineStr">
+      <c r="DB2" s="2" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>
       </c>
-      <c r="BB2" s="2" t="inlineStr">
+      <c r="DC2" s="2" t="inlineStr">
         <is>
           <t>2025-05-06</t>
         </is>
       </c>
-      <c r="BC2" s="2" t="inlineStr">
+      <c r="DD2" s="2" t="inlineStr">
         <is>
           <t>2025-05-05</t>
         </is>
       </c>
-      <c r="BD2" s="2" t="inlineStr">
+      <c r="DE2" s="2" t="inlineStr">
         <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="BE2" s="2" t="inlineStr">
+      <c r="DF2" s="2" t="inlineStr">
         <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="BF2" s="2" t="inlineStr">
+      <c r="DG2" s="2" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="BG2" s="2" t="inlineStr">
+      <c r="DH2" s="2" t="inlineStr">
         <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="BH2" s="2" t="inlineStr">
+      <c r="DI2" s="2" t="inlineStr">
         <is>
           <t>2025-04-30</t>
         </is>
       </c>
-      <c r="BI2" s="2" t="inlineStr">
+      <c r="DJ2" s="2" t="inlineStr">
         <is>
           <t>2025-04-29</t>
         </is>
       </c>
-      <c r="BJ2" s="2" t="inlineStr">
+      <c r="DK2" s="2" t="inlineStr">
         <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="BK2" s="2" t="inlineStr">
+      <c r="DL2" s="2" t="inlineStr">
         <is>
           <t>2025-04-27</t>
         </is>
       </c>
-      <c r="BL2" s="2" t="inlineStr">
+      <c r="DM2" s="2" t="inlineStr">
         <is>
           <t>2025-04-26</t>
         </is>
       </c>
-      <c r="BM2" s="2" t="inlineStr">
+      <c r="DN2" s="2" t="inlineStr">
         <is>
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="BN2" s="2" t="inlineStr">
+      <c r="DO2" s="2" t="inlineStr">
         <is>
           <t>2025-04-24</t>
         </is>
       </c>
-      <c r="BO2" s="2" t="inlineStr">
+      <c r="DP2" s="2" t="inlineStr">
         <is>
           <t>2025-04-23</t>
         </is>
       </c>
-      <c r="BP2" s="2" t="inlineStr">
+      <c r="DQ2" s="2" t="inlineStr">
         <is>
           <t>2025-04-22</t>
         </is>
       </c>
-      <c r="BQ2" s="2" t="inlineStr">
+      <c r="DR2" s="2" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="BR2" s="2" t="inlineStr">
+      <c r="DS2" s="2" t="inlineStr">
         <is>
           <t>2025-04-20</t>
         </is>
       </c>
-      <c r="BS2" s="2" t="inlineStr">
+      <c r="DT2" s="2" t="inlineStr">
         <is>
           <t>2025-04-19</t>
         </is>
       </c>
-      <c r="BT2" s="2" t="inlineStr">
+      <c r="DU2" s="2" t="inlineStr">
         <is>
           <t>2025-04-18</t>
         </is>
       </c>
-      <c r="BU2" s="2" t="inlineStr">
+      <c r="DV2" s="2" t="inlineStr">
         <is>
           <t>2025-04-17</t>
         </is>
       </c>
-      <c r="BV2" s="2" t="inlineStr">
+      <c r="DW2" s="2" t="inlineStr">
         <is>
           <t>2025-04-16</t>
         </is>
       </c>
-      <c r="BW2" s="2" t="inlineStr">
+      <c r="DX2" s="2" t="inlineStr">
         <is>
           <t>2025-04-15</t>
         </is>
       </c>
-      <c r="BX2" s="2" t="inlineStr">
+      <c r="DY2" s="2" t="inlineStr">
         <is>
           <t>2025-04-14</t>
         </is>
       </c>
-      <c r="BY2" s="2" t="inlineStr">
+      <c r="DZ2" s="2" t="inlineStr">
         <is>
           <t>2025-04-13</t>
         </is>
       </c>
-      <c r="BZ2" s="2" t="inlineStr">
+      <c r="EA2" s="2" t="inlineStr">
         <is>
           <t>2025-04-12</t>
         </is>
       </c>
-      <c r="CA2" s="2" t="inlineStr">
+      <c r="EB2" s="2" t="inlineStr">
         <is>
           <t>2025-04-11</t>
         </is>
       </c>
-      <c r="CB2" s="2" t="inlineStr">
+      <c r="EC2" s="2" t="inlineStr">
         <is>
           <t>2025-04-10</t>
         </is>
       </c>
-      <c r="CC2" s="2" t="inlineStr">
+      <c r="ED2" s="2" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="CD2" s="2" t="inlineStr">
+      <c r="EE2" s="2" t="inlineStr">
         <is>
           <t>2025-04-08</t>
         </is>
       </c>
-      <c r="CE2" s="2" t="inlineStr">
+      <c r="EF2" s="2" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="CF2" s="2" t="inlineStr">
+      <c r="EG2" s="2" t="inlineStr">
         <is>
           <t>2025-04-06</t>
         </is>
       </c>
-      <c r="CG2" s="2" t="inlineStr">
+      <c r="EH2" s="2" t="inlineStr">
         <is>
           <t>2025-04-05</t>
         </is>
       </c>
-      <c r="CH2" s="2" t="inlineStr">
+      <c r="EI2" s="2" t="inlineStr">
         <is>
           <t>2025-04-04</t>
         </is>
       </c>
-      <c r="CI2" s="2" t="inlineStr">
+      <c r="EJ2" s="2" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="CJ2" s="2" t="inlineStr">
+      <c r="EK2" s="2" t="inlineStr">
         <is>
           <t>2025-04-02</t>
         </is>
       </c>
-      <c r="CK2" s="2" t="inlineStr">
+      <c r="EL2" s="2" t="inlineStr">
         <is>
           <t>2025-04-01</t>
         </is>
       </c>
-      <c r="CL2" s="2" t="inlineStr">
+      <c r="EM2" s="2" t="inlineStr">
         <is>
           <t>2025-03-31</t>
         </is>
       </c>
-      <c r="CM2" s="2" t="inlineStr">
+      <c r="EN2" s="2" t="inlineStr">
         <is>
           <t>2025-03-30</t>
         </is>
       </c>
-      <c r="CN2" s="2" t="inlineStr">
+      <c r="EO2" s="2" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
-      <c r="CO2" s="2" t="inlineStr">
+      <c r="EP2" s="2" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
-      <c r="CP2" s="2" t="inlineStr">
+      <c r="EQ2" s="2" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
-      <c r="CQ2" s="2" t="inlineStr">
+      <c r="ER2" s="2" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
-      <c r="CR2" s="2" t="inlineStr">
+      <c r="ES2" s="2" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="CS2" s="2" t="inlineStr">
+      <c r="ET2" s="2" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
-      <c r="CT2" s="2" t="inlineStr">
+      <c r="EU2" s="2" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
-      <c r="CU2" s="2" t="inlineStr">
+      <c r="EV2" s="2" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
-      <c r="CV2" s="2" t="inlineStr">
+      <c r="EW2" s="2" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
-      <c r="CW2" s="2" t="inlineStr">
+      <c r="EX2" s="2" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="CX2" s="2" t="inlineStr">
+      <c r="EY2" s="2" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
-      <c r="CY2" s="2" t="inlineStr">
+      <c r="EZ2" s="2" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
-      <c r="CZ2" s="2" t="inlineStr">
+      <c r="FA2" s="2" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
-      <c r="DA2" s="2" t="inlineStr">
+      <c r="FB2" s="2" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
-      <c r="DB2" s="2" t="inlineStr">
+      <c r="FC2" s="2" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
-      <c r="DC2" s="2" t="inlineStr">
+      <c r="FD2" s="2" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
-      <c r="DD2" s="2" t="inlineStr">
+      <c r="FE2" s="2" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
-      <c r="DE2" s="2" t="inlineStr">
+      <c r="FF2" s="2" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
-      <c r="DF2" s="2" t="inlineStr">
+      <c r="FG2" s="2" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
-      <c r="DG2" s="2" t="inlineStr">
+      <c r="FH2" s="2" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
-      <c r="DH2" s="2" t="inlineStr">
+      <c r="FI2" s="2" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
-      <c r="DI2" s="2" t="inlineStr">
+      <c r="FJ2" s="2" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
-      <c r="DJ2" s="2" t="inlineStr">
+      <c r="FK2" s="2" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
-      <c r="DK2" s="2" t="inlineStr">
+      <c r="FL2" s="2" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
-      <c r="DL2" s="2" t="inlineStr">
+      <c r="FM2" s="2" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
-      <c r="DM2" s="2" t="inlineStr">
+      <c r="FN2" s="2" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
-      <c r="DN2" s="2" t="inlineStr">
+      <c r="FO2" s="2" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
-      <c r="DO2" s="2" t="inlineStr">
+      <c r="FP2" s="2" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
-      <c r="DP2" s="2" t="inlineStr">
+      <c r="FQ2" s="2" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
-      <c r="DQ2" s="2" t="inlineStr">
+      <c r="FR2" s="2" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
-      <c r="DR2" s="2" t="inlineStr">
+      <c r="FS2" s="2" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
-      <c r="DS2" s="2" t="inlineStr">
+      <c r="FT2" s="2" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
-      <c r="DT2" s="2" t="inlineStr">
+      <c r="FU2" s="2" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="DU2" s="2" t="inlineStr">
+      <c r="FV2" s="2" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
-      <c r="DV2" s="2" t="inlineStr">
+      <c r="FW2" s="2" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
-      <c r="DW2" s="2" t="inlineStr">
+      <c r="FX2" s="2" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
-      <c r="DX2" s="2" t="inlineStr">
+      <c r="FY2" s="2" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
-      <c r="DY2" s="2" t="inlineStr">
+      <c r="FZ2" s="2" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
-      <c r="DZ2" s="2" t="inlineStr">
+      <c r="GA2" s="2" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
-      <c r="EA2" s="2" t="inlineStr">
+      <c r="GB2" s="2" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
-      <c r="EB2" s="2" t="inlineStr">
+      <c r="GC2" s="2" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
-      <c r="EC2" s="2" t="inlineStr">
+      <c r="GD2" s="2" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
-      <c r="ED2" s="2" t="inlineStr">
+      <c r="GE2" s="2" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
-      <c r="EE2" s="2" t="inlineStr">
+      <c r="GF2" s="2" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
-      <c r="EF2" s="2" t="inlineStr">
+      <c r="GG2" s="2" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
-      <c r="EG2" s="2" t="inlineStr">
+      <c r="GH2" s="2" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
-      <c r="EH2" s="2" t="inlineStr">
+      <c r="GI2" s="2" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
-      <c r="EI2" s="2" t="inlineStr">
+      <c r="GJ2" s="2" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
-      <c r="EJ2" s="2" t="inlineStr">
+      <c r="GK2" s="2" t="inlineStr">
         <is>
           <t>2025-02-09</t>
         </is>
       </c>
-      <c r="EK2" s="2" t="inlineStr">
+      <c r="GL2" s="2" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
-      <c r="EL2" s="2" t="inlineStr">
+      <c r="GM2" s="2" t="inlineStr">
         <is>
           <t>2025-02-07</t>
         </is>
       </c>
-      <c r="EM2" s="2" t="inlineStr">
+      <c r="GN2" s="2" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
-      <c r="EN2" s="2" t="inlineStr">
+      <c r="GO2" s="2" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
-      <c r="EO2" s="2" t="inlineStr">
+      <c r="GP2" s="2" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
-      <c r="EP2" s="2" t="inlineStr">
+      <c r="GQ2" s="2" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
-      <c r="EQ2" s="2" t="inlineStr">
+      <c r="GR2" s="2" t="inlineStr">
         <is>
           <t>2025-02-02</t>
         </is>
       </c>
-      <c r="ER2" s="2" t="inlineStr">
+      <c r="GS2" s="2" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="ES2" s="2" t="inlineStr">
+      <c r="GT2" s="2" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
-      <c r="ET2" s="2" t="inlineStr">
+      <c r="GU2" s="2" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
-      <c r="EU2" s="2" t="inlineStr">
+      <c r="GV2" s="2" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
-      <c r="EV2" s="2" t="inlineStr">
+      <c r="GW2" s="2" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
-      <c r="EW2" s="2" t="inlineStr">
+      <c r="GX2" s="2" t="inlineStr">
         <is>
           <t>2025-01-27</t>
         </is>
       </c>
-      <c r="EX2" s="2" t="inlineStr">
+      <c r="GY2" s="2" t="inlineStr">
         <is>
           <t>2025-01-26</t>
         </is>
       </c>
-      <c r="EY2" s="2" t="inlineStr">
+      <c r="GZ2" s="2" t="inlineStr">
         <is>
           <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="HA2" s="2" t="inlineStr">
+        <is>
+          <t>20-06-2025</t>
+        </is>
+      </c>
+      <c r="HB2" s="2" t="inlineStr">
+        <is>
+          <t>20-05-2025</t>
+        </is>
+      </c>
+      <c r="HC2" s="2" t="inlineStr">
+        <is>
+          <t>20-04-2025</t>
+        </is>
+      </c>
+      <c r="HD2" s="2" t="inlineStr">
+        <is>
+          <t>20-03-2025</t>
+        </is>
+      </c>
+      <c r="HE2" s="2" t="inlineStr">
+        <is>
+          <t>20-02-2025</t>
+        </is>
+      </c>
+      <c r="HF2" s="2" t="inlineStr">
+        <is>
+          <t>19-06-2025</t>
+        </is>
+      </c>
+      <c r="HG2" s="2" t="inlineStr">
+        <is>
+          <t>19-05-2025</t>
+        </is>
+      </c>
+      <c r="HH2" s="2" t="inlineStr">
+        <is>
+          <t>19-04-2025</t>
+        </is>
+      </c>
+      <c r="HI2" s="2" t="inlineStr">
+        <is>
+          <t>19-03-2025</t>
+        </is>
+      </c>
+      <c r="HJ2" s="2" t="inlineStr">
+        <is>
+          <t>19-02-2025</t>
+        </is>
+      </c>
+      <c r="HK2" s="2" t="inlineStr">
+        <is>
+          <t>18-06-2025</t>
+        </is>
+      </c>
+      <c r="HL2" s="2" t="inlineStr">
+        <is>
+          <t>18-05-2025</t>
+        </is>
+      </c>
+      <c r="HM2" s="2" t="inlineStr">
+        <is>
+          <t>18-04-2025</t>
+        </is>
+      </c>
+      <c r="HN2" s="2" t="inlineStr">
+        <is>
+          <t>18-03-2025</t>
+        </is>
+      </c>
+      <c r="HO2" s="2" t="inlineStr">
+        <is>
+          <t>18-02-2025</t>
+        </is>
+      </c>
+      <c r="HP2" s="2" t="inlineStr">
+        <is>
+          <t>17-06-2025</t>
+        </is>
+      </c>
+      <c r="HQ2" s="2" t="inlineStr">
+        <is>
+          <t>17-05-2025</t>
+        </is>
+      </c>
+      <c r="HR2" s="2" t="inlineStr">
+        <is>
+          <t>17-04-2025</t>
+        </is>
+      </c>
+      <c r="HS2" s="2" t="inlineStr">
+        <is>
+          <t>17-03-2025</t>
+        </is>
+      </c>
+      <c r="HT2" s="2" t="inlineStr">
+        <is>
+          <t>17-02-2025</t>
+        </is>
+      </c>
+      <c r="HU2" s="2" t="inlineStr">
+        <is>
+          <t>16-06-2025</t>
+        </is>
+      </c>
+      <c r="HV2" s="2" t="inlineStr">
+        <is>
+          <t>16-05-2025</t>
+        </is>
+      </c>
+      <c r="HW2" s="2" t="inlineStr">
+        <is>
+          <t>16-04-2025</t>
+        </is>
+      </c>
+      <c r="HX2" s="2" t="inlineStr">
+        <is>
+          <t>16-03-2025</t>
+        </is>
+      </c>
+      <c r="HY2" s="2" t="inlineStr">
+        <is>
+          <t>16-02-2025</t>
+        </is>
+      </c>
+      <c r="HZ2" s="2" t="inlineStr">
+        <is>
+          <t>15-06-2025</t>
+        </is>
+      </c>
+      <c r="IA2" s="2" t="inlineStr">
+        <is>
+          <t>15-05-2025</t>
+        </is>
+      </c>
+      <c r="IB2" s="2" t="inlineStr">
+        <is>
+          <t>15-04-2025</t>
+        </is>
+      </c>
+      <c r="IC2" s="2" t="inlineStr">
+        <is>
+          <t>15-03-2025</t>
+        </is>
+      </c>
+      <c r="ID2" s="2" t="inlineStr">
+        <is>
+          <t>15-02-2025</t>
+        </is>
+      </c>
+      <c r="IE2" s="2" t="inlineStr">
+        <is>
+          <t>14-06-2025</t>
+        </is>
+      </c>
+      <c r="IF2" s="2" t="inlineStr">
+        <is>
+          <t>14-05-2025</t>
+        </is>
+      </c>
+      <c r="IG2" s="2" t="inlineStr">
+        <is>
+          <t>14-04-2025</t>
+        </is>
+      </c>
+      <c r="IH2" s="2" t="inlineStr">
+        <is>
+          <t>14-03-2025</t>
+        </is>
+      </c>
+      <c r="II2" s="2" t="inlineStr">
+        <is>
+          <t>14-02-2025</t>
+        </is>
+      </c>
+      <c r="IJ2" s="2" t="inlineStr">
+        <is>
+          <t>13-06-2025</t>
+        </is>
+      </c>
+      <c r="IK2" s="2" t="inlineStr">
+        <is>
+          <t>13-05-2025</t>
+        </is>
+      </c>
+      <c r="IL2" s="2" t="inlineStr">
+        <is>
+          <t>13-04-2025</t>
+        </is>
+      </c>
+      <c r="IM2" s="2" t="inlineStr">
+        <is>
+          <t>13-03-2025</t>
+        </is>
+      </c>
+      <c r="IN2" s="2" t="inlineStr">
+        <is>
+          <t>13-02-2025</t>
+        </is>
+      </c>
+      <c r="IO2" s="2" t="inlineStr">
+        <is>
+          <t>12-06-2025</t>
+        </is>
+      </c>
+      <c r="IP2" s="2" t="inlineStr">
+        <is>
+          <t>12-05-2025</t>
+        </is>
+      </c>
+      <c r="IQ2" s="2" t="inlineStr">
+        <is>
+          <t>12-04-2025</t>
+        </is>
+      </c>
+      <c r="IR2" s="2" t="inlineStr">
+        <is>
+          <t>12-03-2025</t>
+        </is>
+      </c>
+      <c r="IS2" s="2" t="inlineStr">
+        <is>
+          <t>12-02-2025</t>
+        </is>
+      </c>
+      <c r="IT2" s="2" t="inlineStr">
+        <is>
+          <t>11-06-2025</t>
+        </is>
+      </c>
+      <c r="IU2" s="2" t="inlineStr">
+        <is>
+          <t>11-05-2025</t>
+        </is>
+      </c>
+      <c r="IV2" s="2" t="inlineStr">
+        <is>
+          <t>11-04-2025</t>
+        </is>
+      </c>
+      <c r="IW2" s="2" t="inlineStr">
+        <is>
+          <t>11-03-2025</t>
+        </is>
+      </c>
+      <c r="IX2" s="2" t="inlineStr">
+        <is>
+          <t>11-02-2025</t>
+        </is>
+      </c>
+      <c r="IY2" s="2" t="inlineStr">
+        <is>
+          <t>10-06-2025</t>
+        </is>
+      </c>
+      <c r="IZ2" s="2" t="inlineStr">
+        <is>
+          <t>10-05-2025</t>
+        </is>
+      </c>
+      <c r="JA2" s="2" t="inlineStr">
+        <is>
+          <t>10-04-2025</t>
+        </is>
+      </c>
+      <c r="JB2" s="2" t="inlineStr">
+        <is>
+          <t>10-03-2025</t>
+        </is>
+      </c>
+      <c r="JC2" s="2" t="inlineStr">
+        <is>
+          <t>10-02-2025</t>
+        </is>
+      </c>
+      <c r="JD2" s="2" t="inlineStr">
+        <is>
+          <t>09-06-2025</t>
+        </is>
+      </c>
+      <c r="JE2" s="2" t="inlineStr">
+        <is>
+          <t>09-05-2025</t>
+        </is>
+      </c>
+      <c r="JF2" s="2" t="inlineStr">
+        <is>
+          <t>09-04-2025</t>
+        </is>
+      </c>
+      <c r="JG2" s="2" t="inlineStr">
+        <is>
+          <t>09-03-2025</t>
+        </is>
+      </c>
+      <c r="JH2" s="2" t="inlineStr">
+        <is>
+          <t>09-02-2025</t>
+        </is>
+      </c>
+      <c r="JI2" s="2" t="inlineStr">
+        <is>
+          <t>08-06-2025</t>
+        </is>
+      </c>
+      <c r="JJ2" s="2" t="inlineStr">
+        <is>
+          <t>08-05-2025</t>
+        </is>
+      </c>
+      <c r="JK2" s="2" t="inlineStr">
+        <is>
+          <t>08-04-2025</t>
+        </is>
+      </c>
+      <c r="JL2" s="2" t="inlineStr">
+        <is>
+          <t>08-03-2025</t>
+        </is>
+      </c>
+      <c r="JM2" s="2" t="inlineStr">
+        <is>
+          <t>08-02-2025</t>
+        </is>
+      </c>
+      <c r="JN2" s="2" t="inlineStr">
+        <is>
+          <t>07-06-2025</t>
+        </is>
+      </c>
+      <c r="JO2" s="2" t="inlineStr">
+        <is>
+          <t>07-05-2025</t>
+        </is>
+      </c>
+      <c r="JP2" s="2" t="inlineStr">
+        <is>
+          <t>07-04-2025</t>
+        </is>
+      </c>
+      <c r="JQ2" s="2" t="inlineStr">
+        <is>
+          <t>07-03-2025</t>
+        </is>
+      </c>
+      <c r="JR2" s="2" t="inlineStr">
+        <is>
+          <t>07-02-2025</t>
+        </is>
+      </c>
+      <c r="JS2" s="2" t="inlineStr">
+        <is>
+          <t>06-06-2025</t>
+        </is>
+      </c>
+      <c r="JT2" s="2" t="inlineStr">
+        <is>
+          <t>06-05-2025</t>
+        </is>
+      </c>
+      <c r="JU2" s="2" t="inlineStr">
+        <is>
+          <t>06-04-2025</t>
+        </is>
+      </c>
+      <c r="JV2" s="2" t="inlineStr">
+        <is>
+          <t>06-03-2025</t>
+        </is>
+      </c>
+      <c r="JW2" s="2" t="inlineStr">
+        <is>
+          <t>06-02-2025</t>
+        </is>
+      </c>
+      <c r="JX2" s="2" t="inlineStr">
+        <is>
+          <t>05-06-2025</t>
+        </is>
+      </c>
+      <c r="JY2" s="2" t="inlineStr">
+        <is>
+          <t>05-05-2025</t>
+        </is>
+      </c>
+      <c r="JZ2" s="2" t="inlineStr">
+        <is>
+          <t>05-04-2025</t>
+        </is>
+      </c>
+      <c r="KA2" s="2" t="inlineStr">
+        <is>
+          <t>05-03-2025</t>
+        </is>
+      </c>
+      <c r="KB2" s="2" t="inlineStr">
+        <is>
+          <t>05-02-2025</t>
+        </is>
+      </c>
+      <c r="KC2" s="2" t="inlineStr">
+        <is>
+          <t>04-06-2025</t>
+        </is>
+      </c>
+      <c r="KD2" s="2" t="inlineStr">
+        <is>
+          <t>04-05-2025</t>
+        </is>
+      </c>
+      <c r="KE2" s="2" t="inlineStr">
+        <is>
+          <t>04-04-2025</t>
+        </is>
+      </c>
+      <c r="KF2" s="2" t="inlineStr">
+        <is>
+          <t>04-03-2025</t>
+        </is>
+      </c>
+      <c r="KG2" s="2" t="inlineStr">
+        <is>
+          <t>04-02-2025</t>
+        </is>
+      </c>
+      <c r="KH2" s="2" t="inlineStr">
+        <is>
+          <t>03-06-2025</t>
+        </is>
+      </c>
+      <c r="KI2" s="2" t="inlineStr">
+        <is>
+          <t>03-05-2025</t>
+        </is>
+      </c>
+      <c r="KJ2" s="2" t="inlineStr">
+        <is>
+          <t>03-04-2025</t>
+        </is>
+      </c>
+      <c r="KK2" s="2" t="inlineStr">
+        <is>
+          <t>03-03-2025</t>
+        </is>
+      </c>
+      <c r="KL2" s="2" t="inlineStr">
+        <is>
+          <t>03-02-2025</t>
+        </is>
+      </c>
+      <c r="KM2" s="2" t="inlineStr">
+        <is>
+          <t>02-06-2025</t>
+        </is>
+      </c>
+      <c r="KN2" s="2" t="inlineStr">
+        <is>
+          <t>02-05-2025</t>
+        </is>
+      </c>
+      <c r="KO2" s="2" t="inlineStr">
+        <is>
+          <t>02-04-2025</t>
+        </is>
+      </c>
+      <c r="KP2" s="2" t="inlineStr">
+        <is>
+          <t>02-03-2025</t>
+        </is>
+      </c>
+      <c r="KQ2" s="2" t="inlineStr">
+        <is>
+          <t>02-02-2025</t>
+        </is>
+      </c>
+      <c r="KR2" s="2" t="inlineStr">
+        <is>
+          <t>01-06-2025</t>
+        </is>
+      </c>
+      <c r="KS2" s="2" t="inlineStr">
+        <is>
+          <t>01-05-2025</t>
+        </is>
+      </c>
+      <c r="KT2" s="2" t="inlineStr">
+        <is>
+          <t>01-04-2025</t>
+        </is>
+      </c>
+      <c r="KU2" s="2" t="inlineStr">
+        <is>
+          <t>01-03-2025</t>
+        </is>
+      </c>
+      <c r="KV2" s="2" t="inlineStr">
+        <is>
+          <t>01-02-2025</t>
         </is>
       </c>
     </row>
@@ -3502,445 +4420,904 @@
         <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="4" t="n">
         <v>225</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="BK4" s="4" t="n">
         <v>6206</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="BL4" s="4" t="n">
         <v>7030</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="BM4" s="4" t="n">
         <v>5068</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="BN4" s="4" t="n">
         <v>4178</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="BO4" s="4" t="n">
         <v>3067</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="BP4" s="4" t="n">
         <v>7803</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="BQ4" s="4" t="n">
         <v>6151</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="BR4" s="4" t="n">
         <v>5128</v>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="BS4" s="4" t="n">
         <v>4465</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="BT4" s="4" t="n">
         <v>4043</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="BU4" s="4" t="n">
         <v>3860</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="BV4" s="4" t="n">
         <v>2782</v>
       </c>
-      <c r="V4" s="4" t="n">
+      <c r="BW4" s="4" t="n">
         <v>5414</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="BX4" s="4" t="n">
         <v>6345</v>
       </c>
-      <c r="X4" s="4" t="n">
+      <c r="BY4" s="4" t="n">
         <v>3941</v>
       </c>
-      <c r="Y4" s="4" t="n">
+      <c r="BZ4" s="4" t="n">
         <v>2853</v>
       </c>
-      <c r="Z4" s="4" t="n">
+      <c r="CA4" s="4" t="n">
         <v>2863</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="CB4" s="4" t="n">
         <v>3422</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="CC4" s="4" t="n">
         <v>3271</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="CD4" s="4" t="n">
         <v>13670</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="CE4" s="4" t="n">
         <v>6017</v>
       </c>
-      <c r="AE4" s="4" t="n">
+      <c r="CF4" s="4" t="n">
         <v>4343</v>
       </c>
-      <c r="AF4" s="4" t="n">
+      <c r="CG4" s="4" t="n">
         <v>6003</v>
       </c>
-      <c r="AG4" s="4" t="n">
+      <c r="CH4" s="4" t="n">
         <v>6212</v>
       </c>
-      <c r="AH4" s="4" t="n">
+      <c r="CI4" s="4" t="n">
         <v>7051</v>
       </c>
-      <c r="AI4" s="4" t="n">
+      <c r="CJ4" s="4" t="n">
         <v>2681</v>
       </c>
-      <c r="AJ4" s="4" t="n">
+      <c r="CK4" s="4" t="n">
         <v>4014</v>
       </c>
-      <c r="AK4" s="4" t="n">
+      <c r="CL4" s="4" t="n">
         <v>5692</v>
       </c>
-      <c r="AL4" s="4" t="n">
+      <c r="CM4" s="4" t="n">
         <v>7811</v>
       </c>
-      <c r="AM4" s="4" t="n">
+      <c r="CN4" s="4" t="n">
         <v>5888</v>
       </c>
-      <c r="AN4" s="4" t="n">
+      <c r="CO4" s="4" t="n">
         <v>4611</v>
       </c>
-      <c r="AO4" s="4" t="n">
+      <c r="CP4" s="4" t="n">
         <v>4796</v>
       </c>
-      <c r="AP4" s="4" t="n">
+      <c r="CQ4" s="4" t="n">
         <v>4614</v>
       </c>
-      <c r="AQ4" s="4" t="n">
+      <c r="CR4" s="4" t="n">
         <v>5393</v>
       </c>
-      <c r="AR4" s="4" t="n">
+      <c r="CS4" s="4" t="n">
         <v>11918</v>
       </c>
-      <c r="AS4" s="4" t="n">
+      <c r="CT4" s="4" t="n">
         <v>7240</v>
       </c>
-      <c r="AT4" s="4" t="n">
+      <c r="CU4" s="4" t="n">
         <v>12058</v>
       </c>
-      <c r="AU4" s="4" t="n">
+      <c r="CV4" s="4" t="n">
         <v>10684</v>
       </c>
-      <c r="AV4" s="4" t="n">
+      <c r="CW4" s="4" t="n">
         <v>13688</v>
       </c>
-      <c r="AW4" s="4" t="n">
+      <c r="CX4" s="4" t="n">
         <v>7639</v>
       </c>
-      <c r="AX4" s="4" t="n">
+      <c r="CY4" s="4" t="n">
         <v>16294</v>
       </c>
-      <c r="AY4" s="4" t="n">
+      <c r="CZ4" s="4" t="n">
         <v>11632</v>
       </c>
-      <c r="AZ4" s="4" t="n">
+      <c r="DA4" s="4" t="n">
         <v>12837</v>
       </c>
-      <c r="BA4" s="4" t="n">
+      <c r="DB4" s="4" t="n">
         <v>7647</v>
       </c>
-      <c r="BB4" s="4" t="n">
+      <c r="DC4" s="4" t="n">
         <v>7049</v>
       </c>
-      <c r="BC4" s="4" t="n">
+      <c r="DD4" s="4" t="n">
         <v>9294</v>
       </c>
-      <c r="BD4" s="4" t="n">
+      <c r="DE4" s="4" t="n">
         <v>8828</v>
       </c>
-      <c r="BE4" s="4" t="n">
+      <c r="DF4" s="4" t="n">
         <v>11906</v>
       </c>
-      <c r="BF4" s="4" t="n">
+      <c r="DG4" s="4" t="n">
         <v>12488</v>
       </c>
-      <c r="BG4" s="4" t="n">
+      <c r="DH4" s="4" t="n">
         <v>13856</v>
       </c>
-      <c r="BH4" s="4" t="n">
+      <c r="DI4" s="4" t="n">
         <v>13753</v>
       </c>
-      <c r="BI4" s="4" t="n">
+      <c r="DJ4" s="4" t="n">
         <v>11588</v>
       </c>
-      <c r="BJ4" s="4" t="n">
+      <c r="DK4" s="4" t="n">
         <v>12673</v>
       </c>
-      <c r="BK4" s="4" t="n">
+      <c r="DL4" s="4" t="n">
         <v>11199</v>
       </c>
-      <c r="BL4" s="4" t="n">
+      <c r="DM4" s="4" t="n">
         <v>14417</v>
       </c>
-      <c r="BM4" s="4" t="n">
+      <c r="DN4" s="4" t="n">
         <v>14232</v>
       </c>
-      <c r="BN4" s="4" t="n">
+      <c r="DO4" s="4" t="n">
         <v>15875</v>
       </c>
-      <c r="BO4" s="4" t="n">
+      <c r="DP4" s="4" t="n">
         <v>18244</v>
       </c>
-      <c r="BP4" s="4" t="n">
+      <c r="DQ4" s="4" t="n">
         <v>14086</v>
       </c>
-      <c r="BQ4" s="4" t="n">
+      <c r="DR4" s="4" t="n">
         <v>10245</v>
       </c>
-      <c r="BR4" s="4" t="n">
+      <c r="DS4" s="4" t="n">
         <v>9837</v>
       </c>
-      <c r="BS4" s="4" t="n">
+      <c r="DT4" s="4" t="n">
         <v>11187</v>
       </c>
-      <c r="BT4" s="4" t="n">
+      <c r="DU4" s="4" t="n">
         <v>9683</v>
       </c>
-      <c r="BU4" s="4" t="n">
+      <c r="DV4" s="4" t="n">
         <v>16543</v>
       </c>
-      <c r="BV4" s="4" t="n">
+      <c r="DW4" s="4" t="n">
         <v>13248</v>
       </c>
-      <c r="BW4" s="4" t="n">
+      <c r="DX4" s="4" t="n">
         <v>16537</v>
       </c>
-      <c r="BX4" s="4" t="n">
+      <c r="DY4" s="4" t="n">
         <v>12060</v>
       </c>
-      <c r="BY4" s="4" t="n">
+      <c r="DZ4" s="4" t="n">
         <v>9853</v>
       </c>
-      <c r="BZ4" s="4" t="n">
+      <c r="EA4" s="4" t="n">
         <v>13398</v>
       </c>
-      <c r="CA4" s="4" t="n">
+      <c r="EB4" s="4" t="n">
         <v>13689</v>
       </c>
-      <c r="CB4" s="4" t="n">
+      <c r="EC4" s="4" t="n">
         <v>13011</v>
       </c>
-      <c r="CC4" s="4" t="n">
+      <c r="ED4" s="4" t="n">
         <v>12777</v>
       </c>
-      <c r="CD4" s="4" t="n">
+      <c r="EE4" s="4" t="n">
         <v>7994</v>
       </c>
-      <c r="CE4" s="4" t="n">
+      <c r="EF4" s="4" t="n">
         <v>8275</v>
       </c>
-      <c r="CF4" s="4" t="n">
+      <c r="EG4" s="4" t="n">
         <v>6802</v>
       </c>
-      <c r="CG4" s="4" t="n">
+      <c r="EH4" s="4" t="n">
         <v>8104</v>
       </c>
-      <c r="CH4" s="4" t="n">
+      <c r="EI4" s="4" t="n">
         <v>8175</v>
       </c>
-      <c r="CI4" s="4" t="n">
+      <c r="EJ4" s="4" t="n">
         <v>6948</v>
       </c>
-      <c r="CJ4" s="4" t="n">
+      <c r="EK4" s="4" t="n">
         <v>5790</v>
       </c>
-      <c r="CK4" s="4" t="n">
+      <c r="EL4" s="4" t="n">
         <v>5502</v>
       </c>
-      <c r="CL4" s="4" t="n">
+      <c r="EM4" s="4" t="n">
         <v>3148</v>
       </c>
-      <c r="CM4" s="4" t="n">
+      <c r="EN4" s="4" t="n">
         <v>3691</v>
       </c>
-      <c r="CN4" s="4" t="n">
+      <c r="EO4" s="4" t="n">
         <v>6086</v>
       </c>
-      <c r="CO4" s="4" t="n">
+      <c r="EP4" s="4" t="n">
         <v>6536</v>
       </c>
-      <c r="CP4" s="4" t="n">
+      <c r="EQ4" s="4" t="n">
         <v>4262</v>
       </c>
-      <c r="CQ4" s="4" t="n">
+      <c r="ER4" s="4" t="n">
         <v>5025</v>
       </c>
-      <c r="CR4" s="4" t="n">
+      <c r="ES4" s="4" t="n">
         <v>4451</v>
       </c>
-      <c r="CS4" s="4" t="n">
+      <c r="ET4" s="4" t="n">
         <v>2568</v>
       </c>
-      <c r="CT4" s="4" t="n">
+      <c r="EU4" s="4" t="n">
         <v>1498</v>
       </c>
-      <c r="CU4" s="4" t="n">
+      <c r="EV4" s="4" t="n">
         <v>3953</v>
       </c>
-      <c r="CV4" s="4" t="n">
+      <c r="EW4" s="4" t="n">
         <v>4812</v>
       </c>
-      <c r="CW4" s="4" t="n">
+      <c r="EX4" s="4" t="n">
         <v>3735</v>
       </c>
-      <c r="CX4" s="4" t="n">
+      <c r="EY4" s="4" t="n">
         <v>4818</v>
       </c>
-      <c r="CY4" s="4" t="n">
+      <c r="EZ4" s="4" t="n">
         <v>3421</v>
       </c>
-      <c r="CZ4" s="4" t="n">
+      <c r="FA4" s="4" t="n">
         <v>4535</v>
       </c>
-      <c r="DA4" s="4" t="n">
+      <c r="FB4" s="4" t="n">
         <v>2492</v>
       </c>
-      <c r="DB4" s="4" t="n">
+      <c r="FC4" s="4" t="n">
         <v>4991</v>
       </c>
-      <c r="DC4" s="4" t="n">
+      <c r="FD4" s="4" t="n">
         <v>6175</v>
       </c>
-      <c r="DD4" s="4" t="n">
+      <c r="FE4" s="4" t="n">
         <v>5843</v>
       </c>
-      <c r="DE4" s="4" t="n">
+      <c r="FF4" s="4" t="n">
         <v>4354</v>
       </c>
-      <c r="DF4" s="4" t="n">
+      <c r="FG4" s="4" t="n">
         <v>2806</v>
       </c>
-      <c r="DG4" s="4" t="n">
+      <c r="FH4" s="4" t="n">
         <v>2176</v>
       </c>
-      <c r="DH4" s="4" t="n">
+      <c r="FI4" s="4" t="n">
         <v>2009</v>
       </c>
-      <c r="DI4" s="4" t="n">
+      <c r="FJ4" s="4" t="n">
         <v>2783</v>
       </c>
-      <c r="DJ4" s="4" t="n">
+      <c r="FK4" s="4" t="n">
         <v>5994</v>
       </c>
-      <c r="DK4" s="4" t="n">
+      <c r="FL4" s="4" t="n">
         <v>8252</v>
       </c>
-      <c r="DL4" s="4" t="n">
+      <c r="FM4" s="4" t="n">
         <v>5891</v>
       </c>
-      <c r="DM4" s="4" t="n">
+      <c r="FN4" s="4" t="n">
         <v>4682</v>
       </c>
-      <c r="DN4" s="4" t="n">
+      <c r="FO4" s="4" t="n">
         <v>7734</v>
       </c>
-      <c r="DO4" s="4" t="n">
+      <c r="FP4" s="4" t="n">
         <v>3965</v>
       </c>
-      <c r="DP4" s="4" t="n">
+      <c r="FQ4" s="4" t="n">
         <v>4402</v>
       </c>
-      <c r="DQ4" s="4" t="n">
+      <c r="FR4" s="4" t="n">
         <v>5799</v>
       </c>
-      <c r="DR4" s="4" t="n">
+      <c r="FS4" s="4" t="n">
         <v>3301</v>
       </c>
-      <c r="DS4" s="4" t="n">
+      <c r="FT4" s="4" t="n">
         <v>3827</v>
       </c>
-      <c r="DT4" s="4" t="n">
+      <c r="FU4" s="4" t="n">
         <v>4242</v>
       </c>
-      <c r="DU4" s="4" t="n">
+      <c r="FV4" s="4" t="n">
         <v>3146</v>
       </c>
-      <c r="DV4" s="4" t="n">
+      <c r="FW4" s="4" t="n">
         <v>1167</v>
       </c>
-      <c r="DW4" s="4" t="n">
+      <c r="FX4" s="4" t="n">
         <v>1173</v>
       </c>
-      <c r="DX4" s="4" t="n">
+      <c r="FY4" s="4" t="n">
         <v>1782</v>
       </c>
-      <c r="DY4" s="4" t="n">
+      <c r="FZ4" s="4" t="n">
         <v>1140</v>
       </c>
-      <c r="DZ4" s="4" t="n">
+      <c r="GA4" s="4" t="n">
         <v>3275</v>
       </c>
-      <c r="EA4" s="4" t="n">
+      <c r="GB4" s="4" t="n">
         <v>1944</v>
       </c>
-      <c r="EB4" s="4" t="n">
+      <c r="GC4" s="4" t="n">
         <v>2783</v>
       </c>
-      <c r="EC4" s="4" t="n">
+      <c r="GD4" s="4" t="n">
         <v>1924</v>
       </c>
-      <c r="ED4" s="4" t="n">
+      <c r="GE4" s="4" t="n">
         <v>1422</v>
       </c>
-      <c r="EE4" s="4" t="n">
+      <c r="GF4" s="4" t="n">
         <v>1225</v>
       </c>
-      <c r="EF4" s="4" t="n">
+      <c r="GG4" s="4" t="n">
         <v>1782</v>
       </c>
-      <c r="EG4" s="4" t="n">
+      <c r="GH4" s="4" t="n">
         <v>1541</v>
       </c>
-      <c r="EH4" s="4" t="n">
+      <c r="GI4" s="4" t="n">
         <v>3694</v>
       </c>
-      <c r="EI4" s="4" t="n">
+      <c r="GJ4" s="4" t="n">
         <v>1609</v>
       </c>
-      <c r="EJ4" s="4" t="n">
+      <c r="GK4" s="4" t="n">
         <v>703</v>
       </c>
-      <c r="EK4" s="4" t="n">
+      <c r="GL4" s="4" t="n">
         <v>1359</v>
       </c>
-      <c r="EL4" s="4" t="n">
+      <c r="GM4" s="4" t="n">
         <v>3414</v>
       </c>
-      <c r="EM4" s="4" t="n">
+      <c r="GN4" s="4" t="n">
         <v>3351</v>
       </c>
-      <c r="EN4" s="4" t="n">
+      <c r="GO4" s="4" t="n">
         <v>2948</v>
       </c>
-      <c r="EO4" s="4" t="n">
+      <c r="GP4" s="4" t="n">
         <v>3015</v>
       </c>
-      <c r="EP4" s="4" t="n">
+      <c r="GQ4" s="4" t="n">
         <v>2642</v>
       </c>
-      <c r="EQ4" s="4" t="n">
+      <c r="GR4" s="4" t="n">
         <v>470</v>
       </c>
-      <c r="ER4" s="4" t="n">
+      <c r="GS4" s="4" t="n">
         <v>4605</v>
       </c>
-      <c r="ES4" s="4" t="n">
+      <c r="GT4" s="4" t="n">
         <v>2857</v>
       </c>
-      <c r="ET4" s="4" t="n">
+      <c r="GU4" s="4" t="n">
         <v>20477</v>
       </c>
-      <c r="EU4" s="4" t="n">
+      <c r="GV4" s="4" t="n">
         <v>7310</v>
       </c>
-      <c r="EV4" s="4" t="n">
+      <c r="GW4" s="4" t="n">
         <v>1839</v>
       </c>
-      <c r="EW4" s="4" t="n">
+      <c r="GX4" s="4" t="n">
         <v>3394</v>
       </c>
-      <c r="EX4" s="4" t="n">
+      <c r="GY4" s="4" t="n">
         <v>1147</v>
       </c>
-      <c r="EY4" s="4" t="n">
+      <c r="GZ4" s="4" t="n">
         <v>8477</v>
+      </c>
+      <c r="HA4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="II4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV4" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3971,445 +5348,904 @@
         <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="BK5" s="4" t="n">
         <v>436</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="BL5" s="4" t="n">
         <v>714</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="BM5" s="4" t="n">
         <v>611</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="BN5" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="BO5" s="4" t="n">
         <v>163</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="BP5" s="4" t="n">
         <v>824</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="BQ5" s="4" t="n">
         <v>341</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="BR5" s="4" t="n">
         <v>447</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="BS5" s="4" t="n">
         <v>446</v>
       </c>
-      <c r="S5" s="4" t="n">
+      <c r="BT5" s="4" t="n">
         <v>317</v>
       </c>
-      <c r="T5" s="4" t="n">
+      <c r="BU5" s="4" t="n">
         <v>167</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="BV5" s="4" t="n">
         <v>108</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="BW5" s="4" t="n">
         <v>1434</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="BX5" s="4" t="n">
         <v>696</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="BY5" s="4" t="n">
         <v>418</v>
       </c>
-      <c r="Y5" s="4" t="n">
+      <c r="BZ5" s="4" t="n">
         <v>307</v>
       </c>
-      <c r="Z5" s="4" t="n">
+      <c r="CA5" s="4" t="n">
         <v>352</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="CB5" s="4" t="n">
         <v>407</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="CC5" s="4" t="n">
         <v>578</v>
       </c>
-      <c r="AC5" s="4" t="n">
+      <c r="CD5" s="4" t="n">
         <v>1085</v>
       </c>
-      <c r="AD5" s="4" t="n">
+      <c r="CE5" s="4" t="n">
         <v>519</v>
       </c>
-      <c r="AE5" s="4" t="n">
+      <c r="CF5" s="4" t="n">
         <v>448</v>
       </c>
-      <c r="AF5" s="4" t="n">
+      <c r="CG5" s="4" t="n">
         <v>997</v>
       </c>
-      <c r="AG5" s="4" t="n">
+      <c r="CH5" s="4" t="n">
         <v>519</v>
       </c>
-      <c r="AH5" s="4" t="n">
+      <c r="CI5" s="4" t="n">
         <v>614</v>
       </c>
-      <c r="AI5" s="4" t="n">
+      <c r="CJ5" s="4" t="n">
         <v>534</v>
       </c>
-      <c r="AJ5" s="4" t="n">
+      <c r="CK5" s="4" t="n">
         <v>619</v>
       </c>
-      <c r="AK5" s="4" t="n">
+      <c r="CL5" s="4" t="n">
         <v>691</v>
       </c>
-      <c r="AL5" s="4" t="n">
+      <c r="CM5" s="4" t="n">
         <v>958</v>
       </c>
-      <c r="AM5" s="4" t="n">
+      <c r="CN5" s="4" t="n">
         <v>899</v>
       </c>
-      <c r="AN5" s="4" t="n">
+      <c r="CO5" s="4" t="n">
         <v>494</v>
       </c>
-      <c r="AO5" s="4" t="n">
+      <c r="CP5" s="4" t="n">
         <v>519</v>
       </c>
-      <c r="AP5" s="4" t="n">
+      <c r="CQ5" s="4" t="n">
         <v>693</v>
       </c>
-      <c r="AQ5" s="4" t="n">
+      <c r="CR5" s="4" t="n">
         <v>453</v>
       </c>
-      <c r="AR5" s="4" t="n">
+      <c r="CS5" s="4" t="n">
         <v>590</v>
       </c>
-      <c r="AS5" s="4" t="n">
+      <c r="CT5" s="4" t="n">
         <v>668</v>
       </c>
-      <c r="AT5" s="4" t="n">
+      <c r="CU5" s="4" t="n">
         <v>666</v>
       </c>
-      <c r="AU5" s="4" t="n">
+      <c r="CV5" s="4" t="n">
         <v>511</v>
       </c>
-      <c r="AV5" s="4" t="n">
+      <c r="CW5" s="4" t="n">
         <v>845</v>
       </c>
-      <c r="AW5" s="4" t="n">
+      <c r="CX5" s="4" t="n">
         <v>734</v>
       </c>
-      <c r="AX5" s="4" t="n">
+      <c r="CY5" s="4" t="n">
         <v>585</v>
       </c>
-      <c r="AY5" s="4" t="n">
+      <c r="CZ5" s="4" t="n">
         <v>874</v>
       </c>
-      <c r="AZ5" s="4" t="n">
+      <c r="DA5" s="4" t="n">
         <v>697</v>
       </c>
-      <c r="BA5" s="4" t="n">
+      <c r="DB5" s="4" t="n">
         <v>388</v>
       </c>
-      <c r="BB5" s="4" t="n">
+      <c r="DC5" s="4" t="n">
         <v>319</v>
       </c>
-      <c r="BC5" s="4" t="n">
+      <c r="DD5" s="4" t="n">
         <v>244</v>
       </c>
-      <c r="BD5" s="4" t="n">
+      <c r="DE5" s="4" t="n">
         <v>311</v>
       </c>
-      <c r="BE5" s="4" t="n">
+      <c r="DF5" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="BF5" s="4" t="n">
+      <c r="DG5" s="4" t="n">
         <v>743</v>
       </c>
-      <c r="BG5" s="4" t="n">
+      <c r="DH5" s="4" t="n">
         <v>835</v>
       </c>
-      <c r="BH5" s="4" t="n">
+      <c r="DI5" s="4" t="n">
         <v>363</v>
       </c>
-      <c r="BI5" s="4" t="n">
+      <c r="DJ5" s="4" t="n">
         <v>346</v>
       </c>
-      <c r="BJ5" s="4" t="n">
+      <c r="DK5" s="4" t="n">
         <v>704</v>
       </c>
-      <c r="BK5" s="4" t="n">
+      <c r="DL5" s="4" t="n">
         <v>416</v>
       </c>
-      <c r="BL5" s="4" t="n">
+      <c r="DM5" s="4" t="n">
         <v>995</v>
       </c>
-      <c r="BM5" s="4" t="n">
+      <c r="DN5" s="4" t="n">
         <v>926</v>
       </c>
-      <c r="BN5" s="4" t="n">
+      <c r="DO5" s="4" t="n">
         <v>1160</v>
       </c>
-      <c r="BO5" s="4" t="n">
+      <c r="DP5" s="4" t="n">
         <v>1439</v>
       </c>
-      <c r="BP5" s="4" t="n">
+      <c r="DQ5" s="4" t="n">
         <v>1549</v>
       </c>
-      <c r="BQ5" s="4" t="n">
+      <c r="DR5" s="4" t="n">
         <v>1055</v>
       </c>
-      <c r="BR5" s="4" t="n">
+      <c r="DS5" s="4" t="n">
         <v>348</v>
       </c>
-      <c r="BS5" s="4" t="n">
+      <c r="DT5" s="4" t="n">
         <v>707</v>
       </c>
-      <c r="BT5" s="4" t="n">
+      <c r="DU5" s="4" t="n">
         <v>354</v>
       </c>
-      <c r="BU5" s="4" t="n">
+      <c r="DV5" s="4" t="n">
         <v>1238</v>
       </c>
-      <c r="BV5" s="4" t="n">
+      <c r="DW5" s="4" t="n">
         <v>1282</v>
       </c>
-      <c r="BW5" s="4" t="n">
+      <c r="DX5" s="4" t="n">
         <v>920</v>
       </c>
-      <c r="BX5" s="4" t="n">
+      <c r="DY5" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="BY5" s="4" t="n">
+      <c r="DZ5" s="4" t="n">
         <v>596</v>
       </c>
-      <c r="BZ5" s="4" t="n">
+      <c r="EA5" s="4" t="n">
         <v>803</v>
       </c>
-      <c r="CA5" s="4" t="n">
+      <c r="EB5" s="4" t="n">
         <v>669</v>
       </c>
-      <c r="CB5" s="4" t="n">
+      <c r="EC5" s="4" t="n">
         <v>585</v>
       </c>
-      <c r="CC5" s="4" t="n">
+      <c r="ED5" s="4" t="n">
         <v>701</v>
       </c>
-      <c r="CD5" s="4" t="n">
+      <c r="EE5" s="4" t="n">
         <v>749</v>
       </c>
-      <c r="CE5" s="4" t="n">
+      <c r="EF5" s="4" t="n">
         <v>1121</v>
       </c>
-      <c r="CF5" s="4" t="n">
+      <c r="EG5" s="4" t="n">
         <v>306</v>
       </c>
-      <c r="CG5" s="4" t="n">
+      <c r="EH5" s="4" t="n">
         <v>734</v>
       </c>
-      <c r="CH5" s="4" t="n">
+      <c r="EI5" s="4" t="n">
         <v>1208</v>
       </c>
-      <c r="CI5" s="4" t="n">
+      <c r="EJ5" s="4" t="n">
         <v>767</v>
       </c>
-      <c r="CJ5" s="4" t="n">
+      <c r="EK5" s="4" t="n">
         <v>622</v>
       </c>
-      <c r="CK5" s="4" t="n">
+      <c r="EL5" s="4" t="n">
         <v>1237</v>
       </c>
-      <c r="CL5" s="4" t="n">
+      <c r="EM5" s="4" t="n">
         <v>502</v>
       </c>
-      <c r="CM5" s="4" t="n">
+      <c r="EN5" s="4" t="n">
         <v>636</v>
       </c>
-      <c r="CN5" s="4" t="n">
+      <c r="EO5" s="4" t="n">
         <v>1255</v>
       </c>
-      <c r="CO5" s="4" t="n">
+      <c r="EP5" s="4" t="n">
         <v>2949</v>
       </c>
-      <c r="CP5" s="4" t="n">
+      <c r="EQ5" s="4" t="n">
         <v>337</v>
       </c>
-      <c r="CQ5" s="4" t="n">
+      <c r="ER5" s="4" t="n">
         <v>1050</v>
       </c>
-      <c r="CR5" s="4" t="n">
+      <c r="ES5" s="4" t="n">
         <v>301</v>
       </c>
-      <c r="CS5" s="4" t="n">
+      <c r="ET5" s="4" t="n">
         <v>176</v>
       </c>
-      <c r="CT5" s="4" t="n">
+      <c r="EU5" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="CU5" s="4" t="n">
+      <c r="EV5" s="4" t="n">
         <v>862</v>
       </c>
-      <c r="CV5" s="4" t="n">
+      <c r="EW5" s="4" t="n">
         <v>268</v>
       </c>
-      <c r="CW5" s="4" t="n">
+      <c r="EX5" s="4" t="n">
         <v>449</v>
       </c>
-      <c r="CX5" s="4" t="n">
+      <c r="EY5" s="4" t="n">
         <v>1571</v>
       </c>
-      <c r="CY5" s="4" t="n">
+      <c r="EZ5" s="4" t="n">
         <v>1063</v>
       </c>
-      <c r="CZ5" s="4" t="n">
+      <c r="FA5" s="4" t="n">
         <v>816</v>
       </c>
-      <c r="DA5" s="4" t="n">
+      <c r="FB5" s="4" t="n">
         <v>469</v>
       </c>
-      <c r="DB5" s="4" t="n">
+      <c r="FC5" s="4" t="n">
         <v>956</v>
       </c>
-      <c r="DC5" s="4" t="n">
+      <c r="FD5" s="4" t="n">
         <v>1594</v>
       </c>
-      <c r="DD5" s="4" t="n">
+      <c r="FE5" s="4" t="n">
         <v>1223</v>
       </c>
-      <c r="DE5" s="4" t="n">
+      <c r="FF5" s="4" t="n">
         <v>1342</v>
       </c>
-      <c r="DF5" s="4" t="n">
+      <c r="FG5" s="4" t="n">
         <v>208</v>
       </c>
-      <c r="DG5" s="4" t="n">
+      <c r="FH5" s="4" t="n">
         <v>475</v>
       </c>
-      <c r="DH5" s="4" t="n">
+      <c r="FI5" s="4" t="n">
         <v>229</v>
       </c>
-      <c r="DI5" s="4" t="n">
+      <c r="FJ5" s="4" t="n">
         <v>469</v>
       </c>
-      <c r="DJ5" s="4" t="n">
+      <c r="FK5" s="4" t="n">
         <v>2598</v>
       </c>
-      <c r="DK5" s="4" t="n">
+      <c r="FL5" s="4" t="n">
         <v>5418</v>
       </c>
-      <c r="DL5" s="4" t="n">
+      <c r="FM5" s="4" t="n">
         <v>2859</v>
       </c>
-      <c r="DM5" s="4" t="n">
+      <c r="FN5" s="4" t="n">
         <v>2140</v>
       </c>
-      <c r="DN5" s="4" t="n">
+      <c r="FO5" s="4" t="n">
         <v>4970</v>
       </c>
-      <c r="DO5" s="4" t="n">
+      <c r="FP5" s="4" t="n">
         <v>2651</v>
       </c>
-      <c r="DP5" s="4" t="n">
+      <c r="FQ5" s="4" t="n">
         <v>1591</v>
       </c>
-      <c r="DQ5" s="4" t="n">
+      <c r="FR5" s="4" t="n">
         <v>4335</v>
       </c>
-      <c r="DR5" s="4" t="n">
+      <c r="FS5" s="4" t="n">
         <v>1940</v>
       </c>
-      <c r="DS5" s="4" t="n">
+      <c r="FT5" s="4" t="n">
         <v>3658</v>
       </c>
-      <c r="DT5" s="4" t="n">
+      <c r="FU5" s="4" t="n">
         <v>3706</v>
       </c>
-      <c r="DU5" s="4" t="n">
+      <c r="FV5" s="4" t="n">
         <v>2936</v>
       </c>
-      <c r="DV5" s="4" t="n">
+      <c r="FW5" s="4" t="n">
         <v>1089</v>
       </c>
-      <c r="DW5" s="4" t="n">
+      <c r="FX5" s="4" t="n">
         <v>986</v>
       </c>
-      <c r="DX5" s="4" t="n">
+      <c r="FY5" s="4" t="n">
         <v>1624</v>
       </c>
-      <c r="DY5" s="4" t="n">
+      <c r="FZ5" s="4" t="n">
         <v>998</v>
       </c>
-      <c r="DZ5" s="4" t="n">
+      <c r="GA5" s="4" t="n">
         <v>2276</v>
       </c>
-      <c r="EA5" s="4" t="n">
+      <c r="GB5" s="4" t="n">
         <v>1706</v>
       </c>
-      <c r="EB5" s="4" t="n">
+      <c r="GC5" s="4" t="n">
         <v>1242</v>
       </c>
-      <c r="EC5" s="4" t="n">
+      <c r="GD5" s="4" t="n">
         <v>1902</v>
       </c>
-      <c r="ED5" s="4" t="n">
+      <c r="GE5" s="4" t="n">
         <v>1371</v>
       </c>
-      <c r="EE5" s="4" t="n">
+      <c r="GF5" s="4" t="n">
         <v>576</v>
       </c>
-      <c r="EF5" s="4" t="n">
+      <c r="GG5" s="4" t="n">
         <v>1619</v>
       </c>
-      <c r="EG5" s="4" t="n">
+      <c r="GH5" s="4" t="n">
         <v>1272</v>
       </c>
-      <c r="EH5" s="4" t="n">
+      <c r="GI5" s="4" t="n">
         <v>3623</v>
       </c>
-      <c r="EI5" s="4" t="n">
+      <c r="GJ5" s="4" t="n">
         <v>1445</v>
       </c>
-      <c r="EJ5" s="4" t="n">
+      <c r="GK5" s="4" t="n">
         <v>593</v>
       </c>
-      <c r="EK5" s="4" t="n">
+      <c r="GL5" s="4" t="n">
         <v>1271</v>
       </c>
-      <c r="EL5" s="4" t="n">
+      <c r="GM5" s="4" t="n">
         <v>2988</v>
       </c>
-      <c r="EM5" s="4" t="n">
+      <c r="GN5" s="4" t="n">
         <v>3348</v>
       </c>
-      <c r="EN5" s="4" t="n">
+      <c r="GO5" s="4" t="n">
         <v>2948</v>
       </c>
-      <c r="EO5" s="4" t="n">
+      <c r="GP5" s="4" t="n">
         <v>3015</v>
       </c>
-      <c r="EP5" s="4" t="n">
+      <c r="GQ5" s="4" t="n">
         <v>2642</v>
       </c>
-      <c r="EQ5" s="4" t="n">
+      <c r="GR5" s="4" t="n">
         <v>470</v>
       </c>
-      <c r="ER5" s="4" t="n">
+      <c r="GS5" s="4" t="n">
         <v>4605</v>
       </c>
-      <c r="ES5" s="4" t="n">
+      <c r="GT5" s="4" t="n">
         <v>2857</v>
       </c>
-      <c r="ET5" s="4" t="n">
+      <c r="GU5" s="4" t="n">
         <v>20477</v>
       </c>
-      <c r="EU5" s="4" t="n">
+      <c r="GV5" s="4" t="n">
         <v>7310</v>
       </c>
-      <c r="EV5" s="4" t="n">
+      <c r="GW5" s="4" t="n">
         <v>1839</v>
       </c>
-      <c r="EW5" s="4" t="n">
+      <c r="GX5" s="4" t="n">
         <v>3394</v>
       </c>
-      <c r="EX5" s="4" t="n">
+      <c r="GY5" s="4" t="n">
         <v>1147</v>
       </c>
-      <c r="EY5" s="4" t="n">
+      <c r="GZ5" s="4" t="n">
         <v>8477</v>
+      </c>
+      <c r="HA5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="II5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV5" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4440,444 +6276,903 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="4" t="n">
         <v>181</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="BK6" s="4" t="n">
         <v>4824</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="BL6" s="4" t="n">
         <v>4944</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="BM6" s="4" t="n">
         <v>3060</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="BN6" s="4" t="n">
         <v>3245</v>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="BO6" s="4" t="n">
         <v>2502</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="BP6" s="4" t="n">
         <v>4677</v>
       </c>
-      <c r="P6" s="4" t="n">
+      <c r="BQ6" s="4" t="n">
         <v>4784</v>
       </c>
-      <c r="Q6" s="4" t="n">
+      <c r="BR6" s="4" t="n">
         <v>3868</v>
       </c>
-      <c r="R6" s="4" t="n">
+      <c r="BS6" s="4" t="n">
         <v>3232</v>
       </c>
-      <c r="S6" s="4" t="n">
+      <c r="BT6" s="4" t="n">
         <v>3314</v>
       </c>
-      <c r="T6" s="4" t="n">
+      <c r="BU6" s="4" t="n">
         <v>3105</v>
       </c>
-      <c r="U6" s="4" t="n">
+      <c r="BV6" s="4" t="n">
         <v>2176</v>
       </c>
-      <c r="V6" s="4" t="n">
+      <c r="BW6" s="4" t="n">
         <v>3106</v>
       </c>
-      <c r="W6" s="4" t="n">
+      <c r="BX6" s="4" t="n">
         <v>4720</v>
       </c>
-      <c r="X6" s="4" t="n">
+      <c r="BY6" s="4" t="n">
         <v>2412</v>
       </c>
-      <c r="Y6" s="4" t="n">
+      <c r="BZ6" s="4" t="n">
         <v>2119</v>
       </c>
-      <c r="Z6" s="4" t="n">
+      <c r="CA6" s="4" t="n">
         <v>2140</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="CB6" s="4" t="n">
         <v>2445</v>
       </c>
-      <c r="AB6" s="4" t="n">
+      <c r="CC6" s="4" t="n">
         <v>2195</v>
       </c>
-      <c r="AC6" s="4" t="n">
+      <c r="CD6" s="4" t="n">
         <v>10543</v>
       </c>
-      <c r="AD6" s="4" t="n">
+      <c r="CE6" s="4" t="n">
         <v>4619</v>
       </c>
-      <c r="AE6" s="4" t="n">
+      <c r="CF6" s="4" t="n">
         <v>3229</v>
       </c>
-      <c r="AF6" s="4" t="n">
+      <c r="CG6" s="4" t="n">
         <v>4173</v>
       </c>
-      <c r="AG6" s="4" t="n">
+      <c r="CH6" s="4" t="n">
         <v>4951</v>
       </c>
-      <c r="AH6" s="4" t="n">
+      <c r="CI6" s="4" t="n">
         <v>5372</v>
       </c>
-      <c r="AI6" s="4" t="n">
+      <c r="CJ6" s="4" t="n">
         <v>1798</v>
       </c>
-      <c r="AJ6" s="4" t="n">
+      <c r="CK6" s="4" t="n">
         <v>2592</v>
       </c>
-      <c r="AK6" s="4" t="n">
+      <c r="CL6" s="4" t="n">
         <v>4020</v>
       </c>
-      <c r="AL6" s="4" t="n">
+      <c r="CM6" s="4" t="n">
         <v>5713</v>
       </c>
-      <c r="AM6" s="4" t="n">
+      <c r="CN6" s="4" t="n">
         <v>3905</v>
       </c>
-      <c r="AN6" s="4" t="n">
+      <c r="CO6" s="4" t="n">
         <v>3229</v>
       </c>
-      <c r="AO6" s="4" t="n">
+      <c r="CP6" s="4" t="n">
         <v>3601</v>
       </c>
-      <c r="AP6" s="4" t="n">
+      <c r="CQ6" s="4" t="n">
         <v>3363</v>
       </c>
-      <c r="AQ6" s="4" t="n">
+      <c r="CR6" s="4" t="n">
         <v>4027</v>
       </c>
-      <c r="AR6" s="4" t="n">
+      <c r="CS6" s="4" t="n">
         <v>9539</v>
       </c>
-      <c r="AS6" s="4" t="n">
+      <c r="CT6" s="4" t="n">
         <v>5110</v>
       </c>
-      <c r="AT6" s="4" t="n">
+      <c r="CU6" s="4" t="n">
         <v>9160</v>
       </c>
-      <c r="AU6" s="4" t="n">
+      <c r="CV6" s="4" t="n">
         <v>8414</v>
       </c>
-      <c r="AV6" s="4" t="n">
+      <c r="CW6" s="4" t="n">
         <v>10187</v>
       </c>
-      <c r="AW6" s="4" t="n">
+      <c r="CX6" s="4" t="n">
         <v>5767</v>
       </c>
-      <c r="AX6" s="4" t="n">
+      <c r="CY6" s="4" t="n">
         <v>12710</v>
       </c>
-      <c r="AY6" s="4" t="n">
+      <c r="CZ6" s="4" t="n">
         <v>6522</v>
       </c>
-      <c r="AZ6" s="4" t="n">
+      <c r="DA6" s="4" t="n">
         <v>9268</v>
       </c>
-      <c r="BA6" s="4" t="n">
+      <c r="DB6" s="4" t="n">
         <v>5512</v>
       </c>
-      <c r="BB6" s="4" t="n">
+      <c r="DC6" s="4" t="n">
         <v>4943</v>
       </c>
-      <c r="BC6" s="4" t="n">
+      <c r="DD6" s="4" t="n">
         <v>8087</v>
       </c>
-      <c r="BD6" s="4" t="n">
+      <c r="DE6" s="4" t="n">
         <v>6420</v>
       </c>
-      <c r="BE6" s="4" t="n">
+      <c r="DF6" s="4" t="n">
         <v>9728</v>
       </c>
-      <c r="BF6" s="4" t="n">
+      <c r="DG6" s="4" t="n">
         <v>9866</v>
       </c>
-      <c r="BG6" s="4" t="n">
+      <c r="DH6" s="4" t="n">
         <v>10263</v>
       </c>
-      <c r="BH6" s="4" t="n">
+      <c r="DI6" s="4" t="n">
         <v>10807</v>
       </c>
-      <c r="BI6" s="4" t="n">
+      <c r="DJ6" s="4" t="n">
         <v>9048</v>
       </c>
-      <c r="BJ6" s="4" t="n">
+      <c r="DK6" s="4" t="n">
         <v>10216</v>
       </c>
-      <c r="BK6" s="4" t="n">
+      <c r="DL6" s="4" t="n">
         <v>8401</v>
       </c>
-      <c r="BL6" s="4" t="n">
+      <c r="DM6" s="4" t="n">
         <v>11194</v>
       </c>
-      <c r="BM6" s="4" t="n">
+      <c r="DN6" s="4" t="n">
         <v>10186</v>
       </c>
-      <c r="BN6" s="4" t="n">
+      <c r="DO6" s="4" t="n">
         <v>10742</v>
       </c>
-      <c r="BO6" s="4" t="n">
+      <c r="DP6" s="4" t="n">
         <v>12496</v>
       </c>
-      <c r="BP6" s="4" t="n">
+      <c r="DQ6" s="4" t="n">
         <v>8210</v>
       </c>
-      <c r="BQ6" s="4" t="n">
+      <c r="DR6" s="4" t="n">
         <v>7223</v>
       </c>
-      <c r="BR6" s="4" t="n">
+      <c r="DS6" s="4" t="n">
         <v>7906</v>
       </c>
-      <c r="BS6" s="4" t="n">
+      <c r="DT6" s="4" t="n">
         <v>8457</v>
       </c>
-      <c r="BT6" s="4" t="n">
+      <c r="DU6" s="4" t="n">
         <v>8514</v>
       </c>
-      <c r="BU6" s="4" t="n">
+      <c r="DV6" s="4" t="n">
         <v>12664</v>
       </c>
-      <c r="BV6" s="4" t="n">
+      <c r="DW6" s="4" t="n">
         <v>9160</v>
       </c>
-      <c r="BW6" s="4" t="n">
+      <c r="DX6" s="4" t="n">
         <v>12499</v>
       </c>
-      <c r="BX6" s="4" t="n">
+      <c r="DY6" s="4" t="n">
         <v>9604</v>
       </c>
-      <c r="BY6" s="4" t="n">
+      <c r="DZ6" s="4" t="n">
         <v>7848</v>
       </c>
-      <c r="BZ6" s="4" t="n">
+      <c r="EA6" s="4" t="n">
         <v>9466</v>
       </c>
-      <c r="CA6" s="4" t="n">
+      <c r="EB6" s="4" t="n">
         <v>10021</v>
       </c>
-      <c r="CB6" s="4" t="n">
+      <c r="EC6" s="4" t="n">
         <v>9884</v>
       </c>
-      <c r="CC6" s="4" t="n">
+      <c r="ED6" s="4" t="n">
         <v>9809</v>
       </c>
-      <c r="CD6" s="4" t="n">
+      <c r="EE6" s="4" t="n">
         <v>5059</v>
       </c>
-      <c r="CE6" s="4" t="n">
+      <c r="EF6" s="4" t="n">
         <v>5057</v>
       </c>
-      <c r="CF6" s="4" t="n">
+      <c r="EG6" s="4" t="n">
         <v>5011</v>
       </c>
-      <c r="CG6" s="4" t="n">
+      <c r="EH6" s="4" t="n">
         <v>5137</v>
       </c>
-      <c r="CH6" s="4" t="n">
+      <c r="EI6" s="4" t="n">
         <v>3902</v>
       </c>
-      <c r="CI6" s="4" t="n">
+      <c r="EJ6" s="4" t="n">
         <v>4469</v>
       </c>
-      <c r="CJ6" s="4" t="n">
+      <c r="EK6" s="4" t="n">
         <v>4073</v>
       </c>
-      <c r="CK6" s="4" t="n">
+      <c r="EL6" s="4" t="n">
         <v>3339</v>
       </c>
-      <c r="CL6" s="4" t="n">
+      <c r="EM6" s="4" t="n">
         <v>2071</v>
       </c>
-      <c r="CM6" s="4" t="n">
+      <c r="EN6" s="4" t="n">
         <v>2181</v>
       </c>
-      <c r="CN6" s="4" t="n">
+      <c r="EO6" s="4" t="n">
         <v>3635</v>
       </c>
-      <c r="CO6" s="4" t="n">
+      <c r="EP6" s="4" t="n">
         <v>2714</v>
       </c>
-      <c r="CP6" s="4" t="n">
+      <c r="EQ6" s="4" t="n">
         <v>2540</v>
       </c>
-      <c r="CQ6" s="4" t="n">
+      <c r="ER6" s="4" t="n">
         <v>2652</v>
       </c>
-      <c r="CR6" s="4" t="n">
+      <c r="ES6" s="4" t="n">
         <v>2931</v>
       </c>
-      <c r="CS6" s="4" t="n">
+      <c r="ET6" s="4" t="n">
         <v>1711</v>
       </c>
-      <c r="CT6" s="4" t="n">
+      <c r="EU6" s="4" t="n">
         <v>834</v>
       </c>
-      <c r="CU6" s="4" t="n">
+      <c r="EV6" s="4" t="n">
         <v>2151</v>
       </c>
-      <c r="CV6" s="4" t="n">
+      <c r="EW6" s="4" t="n">
         <v>3002</v>
       </c>
-      <c r="CW6" s="4" t="n">
+      <c r="EX6" s="4" t="n">
         <v>2474</v>
       </c>
-      <c r="CX6" s="4" t="n">
+      <c r="EY6" s="4" t="n">
         <v>1744</v>
       </c>
-      <c r="CY6" s="4" t="n">
+      <c r="EZ6" s="4" t="n">
         <v>1422</v>
       </c>
-      <c r="CZ6" s="4" t="n">
+      <c r="FA6" s="4" t="n">
         <v>2359</v>
       </c>
-      <c r="DA6" s="4" t="n">
+      <c r="FB6" s="4" t="n">
         <v>1400</v>
       </c>
-      <c r="DB6" s="4" t="n">
+      <c r="FC6" s="4" t="n">
         <v>2456</v>
       </c>
-      <c r="DC6" s="4" t="n">
+      <c r="FD6" s="4" t="n">
         <v>2493</v>
       </c>
-      <c r="DD6" s="4" t="n">
+      <c r="FE6" s="4" t="n">
         <v>2939</v>
       </c>
-      <c r="DE6" s="4" t="n">
+      <c r="FF6" s="4" t="n">
         <v>1773</v>
       </c>
-      <c r="DF6" s="4" t="n">
+      <c r="FG6" s="4" t="n">
         <v>2012</v>
       </c>
-      <c r="DG6" s="4" t="n">
+      <c r="FH6" s="4" t="n">
         <v>1059</v>
       </c>
-      <c r="DH6" s="4" t="n">
+      <c r="FI6" s="4" t="n">
         <v>806</v>
       </c>
-      <c r="DI6" s="4" t="n">
+      <c r="FJ6" s="4" t="n">
         <v>1312</v>
       </c>
-      <c r="DJ6" s="4" t="n">
+      <c r="FK6" s="4" t="n">
         <v>1501</v>
       </c>
-      <c r="DK6" s="4" t="n">
+      <c r="FL6" s="4" t="n">
         <v>1334</v>
       </c>
-      <c r="DL6" s="4" t="n">
+      <c r="FM6" s="4" t="n">
         <v>1671</v>
       </c>
-      <c r="DM6" s="4" t="n">
+      <c r="FN6" s="4" t="n">
         <v>1292</v>
       </c>
-      <c r="DN6" s="4" t="n">
+      <c r="FO6" s="4" t="n">
         <v>1241</v>
       </c>
-      <c r="DO6" s="4" t="n">
+      <c r="FP6" s="4" t="n">
         <v>792</v>
       </c>
-      <c r="DP6" s="4" t="n">
+      <c r="FQ6" s="4" t="n">
         <v>1790</v>
       </c>
-      <c r="DQ6" s="4" t="n">
+      <c r="FR6" s="4" t="n">
         <v>1093</v>
       </c>
-      <c r="DR6" s="4" t="n">
+      <c r="FS6" s="4" t="n">
         <v>830</v>
       </c>
-      <c r="DS6" s="4" t="n">
+      <c r="FT6" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="DT6" s="4" t="n">
+      <c r="FU6" s="4" t="n">
         <v>215</v>
       </c>
-      <c r="DU6" s="4" t="n">
+      <c r="FV6" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="DV6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW6" s="4" t="n">
+      <c r="FW6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX6" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="DX6" s="4" t="n">
+      <c r="FY6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="DY6" s="4" t="n">
+      <c r="FZ6" s="4" t="n">
         <v>108</v>
       </c>
-      <c r="DZ6" s="4" t="n">
+      <c r="GA6" s="4" t="n">
         <v>126</v>
       </c>
-      <c r="EA6" s="4" t="n">
+      <c r="GB6" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="EB6" s="4" t="n">
+      <c r="GC6" s="4" t="n">
         <v>1367</v>
       </c>
-      <c r="EC6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED6" s="4" t="n">
+      <c r="GD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE6" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="EE6" s="4" t="n">
+      <c r="GF6" s="4" t="n">
         <v>425</v>
       </c>
-      <c r="EF6" s="4" t="n">
+      <c r="GG6" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="EG6" s="4" t="n">
+      <c r="GH6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="EH6" s="4" t="n">
+      <c r="GI6" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="EI6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL6" s="4" t="n">
+      <c r="GJ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM6" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="EM6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY6" s="4" t="n">
+      <c r="GN6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="II6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV6" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5349,6 +7644,465 @@
       <c r="EY7" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="EZ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="II7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV7" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -5818,6 +8572,465 @@
       <c r="EY8" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="EZ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="II8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV8" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -6287,6 +9500,465 @@
       <c r="EY9" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="EZ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="II9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV9" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -6298,463 +9970,922 @@
         <v>490637</v>
       </c>
       <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="4" t="n">
         <v>2937</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="BE10" s="4" t="n">
         <v>4114</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="BF10" s="4" t="n">
         <v>3919</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="BG10" s="4" t="n">
         <v>3927</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="BH10" s="4" t="n">
         <v>4273</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="BI10" s="4" t="n">
         <v>3989</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="BJ10" s="4" t="n">
         <v>4236</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="BK10" s="4" t="n">
         <v>4175</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="BL10" s="4" t="n">
         <v>4006</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="BM10" s="4" t="n">
         <v>4154</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="BN10" s="4" t="n">
         <v>4427</v>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="BO10" s="4" t="n">
         <v>4813</v>
       </c>
-      <c r="O10" s="4" t="n">
+      <c r="BP10" s="4" t="n">
         <v>4565</v>
       </c>
-      <c r="P10" s="4" t="n">
+      <c r="BQ10" s="4" t="n">
         <v>4309</v>
       </c>
-      <c r="Q10" s="4" t="n">
+      <c r="BR10" s="4" t="n">
         <v>4181</v>
       </c>
-      <c r="R10" s="4" t="n">
+      <c r="BS10" s="4" t="n">
         <v>4277</v>
       </c>
-      <c r="S10" s="4" t="n">
+      <c r="BT10" s="4" t="n">
         <v>4094</v>
       </c>
-      <c r="T10" s="4" t="n">
+      <c r="BU10" s="4" t="n">
         <v>4183</v>
       </c>
-      <c r="U10" s="4" t="n">
+      <c r="BV10" s="4" t="n">
         <v>4545</v>
       </c>
-      <c r="V10" s="4" t="n">
+      <c r="BW10" s="4" t="n">
         <v>4225</v>
       </c>
-      <c r="W10" s="4" t="n">
+      <c r="BX10" s="4" t="n">
         <v>4259</v>
       </c>
-      <c r="X10" s="4" t="n">
+      <c r="BY10" s="4" t="n">
         <v>4050</v>
       </c>
-      <c r="Y10" s="4" t="n">
+      <c r="BZ10" s="4" t="n">
         <v>3977</v>
       </c>
-      <c r="Z10" s="4" t="n">
+      <c r="CA10" s="4" t="n">
         <v>4135</v>
       </c>
-      <c r="AA10" s="4" t="n">
+      <c r="CB10" s="4" t="n">
         <v>4162</v>
       </c>
-      <c r="AB10" s="4" t="n">
+      <c r="CC10" s="4" t="n">
         <v>4372</v>
       </c>
-      <c r="AC10" s="4" t="n">
+      <c r="CD10" s="4" t="n">
         <v>4095</v>
       </c>
-      <c r="AD10" s="4" t="n">
+      <c r="CE10" s="4" t="n">
         <v>4026</v>
       </c>
-      <c r="AE10" s="4" t="n">
+      <c r="CF10" s="4" t="n">
         <v>4061</v>
       </c>
-      <c r="AF10" s="4" t="n">
+      <c r="CG10" s="4" t="n">
         <v>4283</v>
       </c>
-      <c r="AG10" s="4" t="n">
+      <c r="CH10" s="4" t="n">
         <v>3891</v>
       </c>
-      <c r="AH10" s="4" t="n">
+      <c r="CI10" s="4" t="n">
         <v>3447</v>
       </c>
-      <c r="AI10" s="4" t="n">
+      <c r="CJ10" s="4" t="n">
         <v>3247</v>
       </c>
-      <c r="AJ10" s="4" t="n">
+      <c r="CK10" s="4" t="n">
         <v>3984</v>
       </c>
-      <c r="AK10" s="4" t="n">
+      <c r="CL10" s="4" t="n">
         <v>3942</v>
       </c>
-      <c r="AL10" s="4" t="n">
+      <c r="CM10" s="4" t="n">
         <v>3918</v>
       </c>
-      <c r="AM10" s="4" t="n">
+      <c r="CN10" s="4" t="n">
         <v>3652</v>
       </c>
-      <c r="AN10" s="4" t="n">
+      <c r="CO10" s="4" t="n">
         <v>3931</v>
       </c>
-      <c r="AO10" s="4" t="n">
+      <c r="CP10" s="4" t="n">
         <v>4220</v>
       </c>
-      <c r="AP10" s="4" t="n">
+      <c r="CQ10" s="4" t="n">
         <v>4494</v>
       </c>
-      <c r="AQ10" s="4" t="n">
+      <c r="CR10" s="4" t="n">
         <v>4180</v>
       </c>
-      <c r="AR10" s="4" t="n">
+      <c r="CS10" s="4" t="n">
         <v>3889</v>
       </c>
-      <c r="AS10" s="4" t="n">
+      <c r="CT10" s="4" t="n">
         <v>4060</v>
       </c>
-      <c r="AT10" s="4" t="n">
+      <c r="CU10" s="4" t="n">
         <v>3620</v>
       </c>
-      <c r="AU10" s="4" t="n">
+      <c r="CV10" s="4" t="n">
         <v>3832</v>
       </c>
-      <c r="AV10" s="4" t="n">
+      <c r="CW10" s="4" t="n">
         <v>3887</v>
       </c>
-      <c r="AW10" s="4" t="n">
+      <c r="CX10" s="4" t="n">
         <v>4295</v>
       </c>
-      <c r="AX10" s="4" t="n">
+      <c r="CY10" s="4" t="n">
         <v>4091</v>
       </c>
-      <c r="AY10" s="4" t="n">
+      <c r="CZ10" s="4" t="n">
         <v>3928</v>
       </c>
-      <c r="AZ10" s="4" t="n">
+      <c r="DA10" s="4" t="n">
         <v>3519</v>
       </c>
-      <c r="BA10" s="4" t="n">
+      <c r="DB10" s="4" t="n">
         <v>3666</v>
       </c>
-      <c r="BB10" s="4" t="n">
+      <c r="DC10" s="4" t="n">
         <v>3645</v>
       </c>
-      <c r="BC10" s="4" t="n">
+      <c r="DD10" s="4" t="n">
         <v>3609</v>
       </c>
-      <c r="BD10" s="4" t="n">
+      <c r="DE10" s="4" t="n">
         <v>4033</v>
       </c>
-      <c r="BE10" s="4" t="n">
+      <c r="DF10" s="4" t="n">
         <v>3967</v>
       </c>
-      <c r="BF10" s="4" t="n">
+      <c r="DG10" s="4" t="n">
         <v>3521</v>
       </c>
-      <c r="BG10" s="4" t="n">
+      <c r="DH10" s="4" t="n">
         <v>3910</v>
       </c>
-      <c r="BH10" s="4" t="n">
+      <c r="DI10" s="4" t="n">
         <v>3927</v>
       </c>
-      <c r="BI10" s="4" t="n">
+      <c r="DJ10" s="4" t="n">
         <v>2455</v>
       </c>
-      <c r="BJ10" s="4" t="n">
+      <c r="DK10" s="4" t="n">
         <v>2382</v>
       </c>
-      <c r="BK10" s="4" t="n">
+      <c r="DL10" s="4" t="n">
         <v>4195</v>
       </c>
-      <c r="BL10" s="4" t="n">
+      <c r="DM10" s="4" t="n">
         <v>3918</v>
       </c>
-      <c r="BM10" s="4" t="n">
+      <c r="DN10" s="4" t="n">
         <v>3775</v>
       </c>
-      <c r="BN10" s="4" t="n">
+      <c r="DO10" s="4" t="n">
         <v>4164</v>
       </c>
-      <c r="BO10" s="4" t="n">
+      <c r="DP10" s="4" t="n">
         <v>3650</v>
       </c>
-      <c r="BP10" s="4" t="n">
+      <c r="DQ10" s="4" t="n">
         <v>3884</v>
       </c>
-      <c r="BQ10" s="4" t="n">
+      <c r="DR10" s="4" t="n">
         <v>3972</v>
       </c>
-      <c r="BR10" s="4" t="n">
+      <c r="DS10" s="4" t="n">
         <v>3979</v>
       </c>
-      <c r="BS10" s="4" t="n">
+      <c r="DT10" s="4" t="n">
         <v>3969</v>
       </c>
-      <c r="BT10" s="4" t="n">
+      <c r="DU10" s="4" t="n">
         <v>3977</v>
       </c>
-      <c r="BU10" s="4" t="n">
+      <c r="DV10" s="4" t="n">
         <v>3972</v>
       </c>
-      <c r="BV10" s="4" t="n">
+      <c r="DW10" s="4" t="n">
         <v>4095</v>
       </c>
-      <c r="BW10" s="4" t="n">
+      <c r="DX10" s="4" t="n">
         <v>3561</v>
       </c>
-      <c r="BX10" s="4" t="n">
+      <c r="DY10" s="4" t="n">
         <v>3755</v>
       </c>
-      <c r="BY10" s="4" t="n">
+      <c r="DZ10" s="4" t="n">
         <v>4000</v>
       </c>
-      <c r="BZ10" s="4" t="n">
+      <c r="EA10" s="4" t="n">
         <v>3757</v>
       </c>
-      <c r="CA10" s="4" t="n">
+      <c r="EB10" s="4" t="n">
         <v>3837</v>
       </c>
-      <c r="CB10" s="4" t="n">
+      <c r="EC10" s="4" t="n">
         <v>3881</v>
       </c>
-      <c r="CC10" s="4" t="n">
+      <c r="ED10" s="4" t="n">
         <v>3686</v>
       </c>
-      <c r="CD10" s="4" t="n">
+      <c r="EE10" s="4" t="n">
         <v>3642</v>
       </c>
-      <c r="CE10" s="4" t="n">
+      <c r="EF10" s="4" t="n">
         <v>3816</v>
       </c>
-      <c r="CF10" s="4" t="n">
+      <c r="EG10" s="4" t="n">
         <v>3804</v>
       </c>
-      <c r="CG10" s="4" t="n">
+      <c r="EH10" s="4" t="n">
         <v>3617</v>
       </c>
-      <c r="CH10" s="4" t="n">
+      <c r="EI10" s="4" t="n">
         <v>3495</v>
       </c>
-      <c r="CI10" s="4" t="n">
+      <c r="EJ10" s="4" t="n">
         <v>3283</v>
       </c>
-      <c r="CJ10" s="4" t="n">
+      <c r="EK10" s="4" t="n">
         <v>3286</v>
       </c>
-      <c r="CK10" s="4" t="n">
+      <c r="EL10" s="4" t="n">
         <v>3256</v>
       </c>
-      <c r="CL10" s="4" t="n">
+      <c r="EM10" s="4" t="n">
         <v>3122</v>
       </c>
-      <c r="CM10" s="4" t="n">
+      <c r="EN10" s="4" t="n">
         <v>3009</v>
       </c>
-      <c r="CN10" s="4" t="n">
+      <c r="EO10" s="4" t="n">
         <v>2824</v>
       </c>
-      <c r="CO10" s="4" t="n">
+      <c r="EP10" s="4" t="n">
         <v>3180</v>
       </c>
-      <c r="CP10" s="4" t="n">
+      <c r="EQ10" s="4" t="n">
         <v>3134</v>
       </c>
-      <c r="CQ10" s="4" t="n">
+      <c r="ER10" s="4" t="n">
         <v>3100</v>
       </c>
-      <c r="CR10" s="4" t="n">
+      <c r="ES10" s="4" t="n">
         <v>3116</v>
       </c>
-      <c r="CS10" s="4" t="n">
+      <c r="ET10" s="4" t="n">
         <v>2333</v>
       </c>
-      <c r="CT10" s="4" t="n">
+      <c r="EU10" s="4" t="n">
         <v>1852</v>
       </c>
-      <c r="CU10" s="4" t="n">
+      <c r="EV10" s="4" t="n">
         <v>3069</v>
       </c>
-      <c r="CV10" s="4" t="n">
+      <c r="EW10" s="4" t="n">
         <v>2876</v>
       </c>
-      <c r="CW10" s="4" t="n">
+      <c r="EX10" s="4" t="n">
         <v>3005</v>
       </c>
-      <c r="CX10" s="4" t="n">
+      <c r="EY10" s="4" t="n">
         <v>2924</v>
       </c>
-      <c r="CY10" s="4" t="n">
+      <c r="EZ10" s="4" t="n">
         <v>2951</v>
       </c>
-      <c r="CZ10" s="4" t="n">
+      <c r="FA10" s="4" t="n">
         <v>2854</v>
       </c>
-      <c r="DA10" s="4" t="n">
+      <c r="FB10" s="4" t="n">
         <v>2919</v>
       </c>
-      <c r="DB10" s="4" t="n">
+      <c r="FC10" s="4" t="n">
         <v>2966</v>
       </c>
-      <c r="DC10" s="4" t="n">
+      <c r="FD10" s="4" t="n">
         <v>2734</v>
       </c>
-      <c r="DD10" s="4" t="n">
+      <c r="FE10" s="4" t="n">
         <v>2675</v>
       </c>
-      <c r="DE10" s="4" t="n">
+      <c r="FF10" s="4" t="n">
         <v>2622</v>
       </c>
-      <c r="DF10" s="4" t="n">
+      <c r="FG10" s="4" t="n">
         <v>2490</v>
       </c>
-      <c r="DG10" s="4" t="n">
+      <c r="FH10" s="4" t="n">
         <v>2521</v>
       </c>
-      <c r="DH10" s="4" t="n">
+      <c r="FI10" s="4" t="n">
         <v>2706</v>
       </c>
-      <c r="DI10" s="4" t="n">
+      <c r="FJ10" s="4" t="n">
         <v>2550</v>
       </c>
-      <c r="DJ10" s="4" t="n">
+      <c r="FK10" s="4" t="n">
         <v>2265</v>
       </c>
-      <c r="DK10" s="4" t="n">
+      <c r="FL10" s="4" t="n">
         <v>2271</v>
       </c>
-      <c r="DL10" s="4" t="n">
+      <c r="FM10" s="4" t="n">
         <v>2474</v>
       </c>
-      <c r="DM10" s="4" t="n">
+      <c r="FN10" s="4" t="n">
         <v>2349</v>
       </c>
-      <c r="DN10" s="4" t="n">
+      <c r="FO10" s="4" t="n">
         <v>2097</v>
       </c>
-      <c r="DO10" s="4" t="n">
+      <c r="FP10" s="4" t="n">
         <v>2223</v>
       </c>
-      <c r="DP10" s="4" t="n">
+      <c r="FQ10" s="4" t="n">
         <v>2415</v>
       </c>
-      <c r="DQ10" s="4" t="n">
+      <c r="FR10" s="4" t="n">
         <v>2660</v>
       </c>
-      <c r="DR10" s="4" t="n">
+      <c r="FS10" s="4" t="n">
         <v>2698</v>
       </c>
-      <c r="DS10" s="4" t="n">
+      <c r="FT10" s="4" t="n">
         <v>3027</v>
       </c>
-      <c r="DT10" s="4" t="n">
+      <c r="FU10" s="4" t="n">
         <v>2729</v>
       </c>
-      <c r="DU10" s="4" t="n">
+      <c r="FV10" s="4" t="n">
         <v>2628</v>
       </c>
-      <c r="DV10" s="4" t="n">
+      <c r="FW10" s="4" t="n">
         <v>2861</v>
       </c>
-      <c r="DW10" s="4" t="n">
+      <c r="FX10" s="4" t="n">
         <v>2622</v>
       </c>
-      <c r="DX10" s="4" t="n">
+      <c r="FY10" s="4" t="n">
         <v>2519</v>
       </c>
-      <c r="DY10" s="4" t="n">
+      <c r="FZ10" s="4" t="n">
         <v>2414</v>
       </c>
-      <c r="DZ10" s="4" t="n">
+      <c r="GA10" s="4" t="n">
         <v>2401</v>
       </c>
-      <c r="EA10" s="4" t="n">
+      <c r="GB10" s="4" t="n">
         <v>2274</v>
       </c>
-      <c r="EB10" s="4" t="n">
+      <c r="GC10" s="4" t="n">
         <v>2071</v>
       </c>
-      <c r="EC10" s="4" t="n">
+      <c r="GD10" s="4" t="n">
         <v>2320</v>
       </c>
-      <c r="ED10" s="4" t="n">
+      <c r="GE10" s="4" t="n">
         <v>1813</v>
       </c>
-      <c r="EE10" s="4" t="n">
+      <c r="GF10" s="4" t="n">
         <v>1852</v>
       </c>
-      <c r="EF10" s="4" t="n">
+      <c r="GG10" s="4" t="n">
         <v>2037</v>
       </c>
-      <c r="EG10" s="4" t="n">
+      <c r="GH10" s="4" t="n">
         <v>2043</v>
       </c>
-      <c r="EH10" s="4" t="n">
+      <c r="GI10" s="4" t="n">
         <v>2216</v>
       </c>
-      <c r="EI10" s="4" t="n">
+      <c r="GJ10" s="4" t="n">
         <v>2227</v>
       </c>
-      <c r="EJ10" s="4" t="n">
+      <c r="GK10" s="4" t="n">
         <v>2299</v>
       </c>
-      <c r="EK10" s="4" t="n">
+      <c r="GL10" s="4" t="n">
         <v>2203</v>
       </c>
-      <c r="EL10" s="4" t="n">
+      <c r="GM10" s="4" t="n">
         <v>1878</v>
       </c>
-      <c r="EM10" s="4" t="n">
+      <c r="GN10" s="4" t="n">
         <v>1991</v>
       </c>
-      <c r="EN10" s="4" t="n">
+      <c r="GO10" s="4" t="n">
         <v>1876</v>
       </c>
-      <c r="EO10" s="4" t="n">
+      <c r="GP10" s="4" t="n">
         <v>1665</v>
       </c>
-      <c r="EP10" s="4" t="n">
+      <c r="GQ10" s="4" t="n">
         <v>1673</v>
       </c>
-      <c r="EQ10" s="4" t="n">
+      <c r="GR10" s="4" t="n">
         <v>1633</v>
       </c>
-      <c r="ER10" s="4" t="n">
+      <c r="GS10" s="4" t="n">
         <v>1656</v>
       </c>
-      <c r="ES10" s="4" t="n">
+      <c r="GT10" s="4" t="n">
         <v>1818</v>
       </c>
-      <c r="ET10" s="4" t="n">
+      <c r="GU10" s="4" t="n">
         <v>1252</v>
       </c>
-      <c r="EU10" s="4" t="n">
+      <c r="GV10" s="4" t="n">
         <v>770</v>
       </c>
-      <c r="EV10" s="4" t="n">
+      <c r="GW10" s="4" t="n">
         <v>194</v>
       </c>
-      <c r="EW10" s="4" t="n">
+      <c r="GX10" s="4" t="n">
         <v>232</v>
       </c>
-      <c r="EX10" s="4" t="n">
+      <c r="GY10" s="4" t="n">
         <v>215</v>
       </c>
-      <c r="EY10" s="4" t="n">
+      <c r="GZ10" s="4" t="n">
         <v>108</v>
+      </c>
+      <c r="HA10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="II10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV10" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6764,466 +10895,925 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>115979</v>
+        <v>119815</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>739</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="X11" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="AB11" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG11" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH11" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ11" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK11" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL11" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="AM11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO11" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP11" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="AR11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS11" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT11" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU11" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV11" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AW11" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AX11" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ11" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA11" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="BB11" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="BC11" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="BD11" s="4" t="n">
+        <v>738</v>
+      </c>
+      <c r="BE11" s="4" t="n">
         <v>776</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="BF11" s="4" t="n">
         <v>755</v>
       </c>
-      <c r="F11" s="4" t="n">
-        <v>727</v>
-      </c>
-      <c r="G11" s="4" t="n">
+      <c r="BG11" s="4" t="n">
+        <v>726</v>
+      </c>
+      <c r="BH11" s="4" t="n">
         <v>716</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>748</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>792</v>
-      </c>
-      <c r="J11" s="4" t="n">
+      <c r="BI11" s="4" t="n">
+        <v>747</v>
+      </c>
+      <c r="BJ11" s="4" t="n">
+        <v>791</v>
+      </c>
+      <c r="BK11" s="4" t="n">
         <v>908</v>
       </c>
-      <c r="K11" s="4" t="n">
-        <v>949</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>873</v>
-      </c>
-      <c r="M11" s="4" t="n">
+      <c r="BL11" s="4" t="n">
+        <v>947</v>
+      </c>
+      <c r="BM11" s="4" t="n">
+        <v>872</v>
+      </c>
+      <c r="BN11" s="4" t="n">
         <v>869</v>
       </c>
-      <c r="N11" s="4" t="n">
-        <v>803</v>
-      </c>
-      <c r="O11" s="4" t="n">
+      <c r="BO11" s="4" t="n">
+        <v>802</v>
+      </c>
+      <c r="BP11" s="4" t="n">
         <v>914</v>
       </c>
-      <c r="P11" s="4" t="n">
-        <v>911</v>
-      </c>
-      <c r="Q11" s="4" t="n">
+      <c r="BQ11" s="4" t="n">
+        <v>910</v>
+      </c>
+      <c r="BR11" s="4" t="n">
         <v>896</v>
       </c>
-      <c r="R11" s="4" t="n">
+      <c r="BS11" s="4" t="n">
         <v>897</v>
       </c>
-      <c r="S11" s="4" t="n">
-        <v>891</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>875</v>
-      </c>
-      <c r="U11" s="4" t="n">
+      <c r="BT11" s="4" t="n">
+        <v>890</v>
+      </c>
+      <c r="BU11" s="4" t="n">
+        <v>872</v>
+      </c>
+      <c r="BV11" s="4" t="n">
         <v>814</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>916</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>928</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>869</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>867</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>872</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>872</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>834</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>902</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>924</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>923</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>869</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>846</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>848</v>
-      </c>
-      <c r="AI11" s="4" t="n">
-        <v>734</v>
-      </c>
-      <c r="AJ11" s="4" t="n">
-        <v>874</v>
-      </c>
-      <c r="AK11" s="4" t="n">
-        <v>898</v>
-      </c>
-      <c r="AL11" s="4" t="n">
-        <v>862</v>
-      </c>
-      <c r="AM11" s="4" t="n">
-        <v>858</v>
-      </c>
-      <c r="AN11" s="4" t="n">
-        <v>824</v>
-      </c>
-      <c r="AO11" s="4" t="n">
-        <v>794</v>
-      </c>
-      <c r="AP11" s="4" t="n">
-        <v>799</v>
-      </c>
-      <c r="AQ11" s="4" t="n">
-        <v>808</v>
-      </c>
-      <c r="AR11" s="4" t="n">
-        <v>873</v>
-      </c>
-      <c r="AS11" s="4" t="n">
-        <v>867</v>
-      </c>
-      <c r="AT11" s="4" t="n">
-        <v>874</v>
-      </c>
-      <c r="AU11" s="4" t="n">
-        <v>866</v>
-      </c>
-      <c r="AV11" s="4" t="n">
-        <v>870</v>
-      </c>
-      <c r="AW11" s="4" t="n">
-        <v>808</v>
-      </c>
-      <c r="AX11" s="4" t="n">
-        <v>885</v>
-      </c>
-      <c r="AY11" s="4" t="n">
-        <v>903</v>
-      </c>
-      <c r="AZ11" s="4" t="n">
-        <v>916</v>
-      </c>
-      <c r="BA11" s="4" t="n">
-        <v>886</v>
-      </c>
-      <c r="BB11" s="4" t="n">
-        <v>855</v>
-      </c>
-      <c r="BC11" s="4" t="n">
-        <v>859</v>
-      </c>
-      <c r="BD11" s="4" t="n">
-        <v>803</v>
-      </c>
-      <c r="BE11" s="4" t="n">
-        <v>881</v>
-      </c>
-      <c r="BF11" s="4" t="n">
-        <v>901</v>
-      </c>
-      <c r="BG11" s="4" t="n">
-        <v>912</v>
-      </c>
-      <c r="BH11" s="4" t="n">
-        <v>924</v>
-      </c>
-      <c r="BI11" s="4" t="n">
-        <v>899</v>
-      </c>
-      <c r="BJ11" s="4" t="n">
-        <v>942</v>
-      </c>
-      <c r="BK11" s="4" t="n">
-        <v>825</v>
-      </c>
-      <c r="BL11" s="4" t="n">
-        <v>909</v>
-      </c>
-      <c r="BM11" s="4" t="n">
-        <v>947</v>
-      </c>
-      <c r="BN11" s="4" t="n">
-        <v>968</v>
-      </c>
-      <c r="BO11" s="4" t="n">
-        <v>973</v>
-      </c>
-      <c r="BP11" s="4" t="n">
-        <v>835</v>
-      </c>
-      <c r="BQ11" s="4" t="n">
-        <v>861</v>
-      </c>
-      <c r="BR11" s="4" t="n">
-        <v>840</v>
-      </c>
-      <c r="BS11" s="4" t="n">
-        <v>910</v>
-      </c>
-      <c r="BT11" s="4" t="n">
-        <v>892</v>
-      </c>
-      <c r="BU11" s="4" t="n">
-        <v>966</v>
-      </c>
-      <c r="BV11" s="4" t="n">
-        <v>936</v>
       </c>
       <c r="BW11" s="4" t="n">
         <v>916</v>
       </c>
       <c r="BX11" s="4" t="n">
-        <v>899</v>
+        <v>927</v>
       </c>
       <c r="BY11" s="4" t="n">
-        <v>772</v>
+        <v>869</v>
       </c>
       <c r="BZ11" s="4" t="n">
+        <v>867</v>
+      </c>
+      <c r="CA11" s="4" t="n">
+        <v>869</v>
+      </c>
+      <c r="CB11" s="4" t="n">
+        <v>872</v>
+      </c>
+      <c r="CC11" s="4" t="n">
+        <v>833</v>
+      </c>
+      <c r="CD11" s="4" t="n">
+        <v>900</v>
+      </c>
+      <c r="CE11" s="4" t="n">
+        <v>923</v>
+      </c>
+      <c r="CF11" s="4" t="n">
+        <v>920</v>
+      </c>
+      <c r="CG11" s="4" t="n">
+        <v>867</v>
+      </c>
+      <c r="CH11" s="4" t="n">
         <v>845</v>
       </c>
-      <c r="CA11" s="4" t="n">
+      <c r="CI11" s="4" t="n">
+        <v>846</v>
+      </c>
+      <c r="CJ11" s="4" t="n">
+        <v>729</v>
+      </c>
+      <c r="CK11" s="4" t="n">
+        <v>872</v>
+      </c>
+      <c r="CL11" s="4" t="n">
+        <v>894</v>
+      </c>
+      <c r="CM11" s="4" t="n">
+        <v>862</v>
+      </c>
+      <c r="CN11" s="4" t="n">
+        <v>856</v>
+      </c>
+      <c r="CO11" s="4" t="n">
+        <v>824</v>
+      </c>
+      <c r="CP11" s="4" t="n">
+        <v>792</v>
+      </c>
+      <c r="CQ11" s="4" t="n">
+        <v>797</v>
+      </c>
+      <c r="CR11" s="4" t="n">
+        <v>807</v>
+      </c>
+      <c r="CS11" s="4" t="n">
+        <v>871</v>
+      </c>
+      <c r="CT11" s="4" t="n">
+        <v>866</v>
+      </c>
+      <c r="CU11" s="4" t="n">
+        <v>873</v>
+      </c>
+      <c r="CV11" s="4" t="n">
+        <v>866</v>
+      </c>
+      <c r="CW11" s="4" t="n">
+        <v>868</v>
+      </c>
+      <c r="CX11" s="4" t="n">
+        <v>807</v>
+      </c>
+      <c r="CY11" s="4" t="n">
+        <v>884</v>
+      </c>
+      <c r="CZ11" s="4" t="n">
+        <v>900</v>
+      </c>
+      <c r="DA11" s="4" t="n">
+        <v>914</v>
+      </c>
+      <c r="DB11" s="4" t="n">
         <v>883</v>
       </c>
-      <c r="CB11" s="4" t="n">
-        <v>868</v>
-      </c>
-      <c r="CC11" s="4" t="n">
+      <c r="DC11" s="4" t="n">
+        <v>854</v>
+      </c>
+      <c r="DD11" s="4" t="n">
         <v>859</v>
       </c>
-      <c r="CD11" s="4" t="n">
+      <c r="DE11" s="4" t="n">
+        <v>801</v>
+      </c>
+      <c r="DF11" s="4" t="n">
+        <v>877</v>
+      </c>
+      <c r="DG11" s="4" t="n">
+        <v>900</v>
+      </c>
+      <c r="DH11" s="4" t="n">
+        <v>907</v>
+      </c>
+      <c r="DI11" s="4" t="n">
+        <v>924</v>
+      </c>
+      <c r="DJ11" s="4" t="n">
+        <v>893</v>
+      </c>
+      <c r="DK11" s="4" t="n">
+        <v>937</v>
+      </c>
+      <c r="DL11" s="4" t="n">
+        <v>823</v>
+      </c>
+      <c r="DM11" s="4" t="n">
+        <v>906</v>
+      </c>
+      <c r="DN11" s="4" t="n">
+        <v>947</v>
+      </c>
+      <c r="DO11" s="4" t="n">
+        <v>967</v>
+      </c>
+      <c r="DP11" s="4" t="n">
+        <v>971</v>
+      </c>
+      <c r="DQ11" s="4" t="n">
         <v>829</v>
       </c>
-      <c r="CE11" s="4" t="n">
-        <v>796</v>
-      </c>
-      <c r="CF11" s="4" t="n">
+      <c r="DR11" s="4" t="n">
+        <v>860</v>
+      </c>
+      <c r="DS11" s="4" t="n">
+        <v>838</v>
+      </c>
+      <c r="DT11" s="4" t="n">
+        <v>907</v>
+      </c>
+      <c r="DU11" s="4" t="n">
+        <v>892</v>
+      </c>
+      <c r="DV11" s="4" t="n">
+        <v>964</v>
+      </c>
+      <c r="DW11" s="4" t="n">
+        <v>933</v>
+      </c>
+      <c r="DX11" s="4" t="n">
+        <v>911</v>
+      </c>
+      <c r="DY11" s="4" t="n">
+        <v>896</v>
+      </c>
+      <c r="DZ11" s="4" t="n">
+        <v>771</v>
+      </c>
+      <c r="EA11" s="4" t="n">
+        <v>843</v>
+      </c>
+      <c r="EB11" s="4" t="n">
+        <v>881</v>
+      </c>
+      <c r="EC11" s="4" t="n">
+        <v>864</v>
+      </c>
+      <c r="ED11" s="4" t="n">
+        <v>857</v>
+      </c>
+      <c r="EE11" s="4" t="n">
+        <v>824</v>
+      </c>
+      <c r="EF11" s="4" t="n">
+        <v>795</v>
+      </c>
+      <c r="EG11" s="4" t="n">
+        <v>740</v>
+      </c>
+      <c r="EH11" s="4" t="n">
+        <v>780</v>
+      </c>
+      <c r="EI11" s="4" t="n">
+        <v>837</v>
+      </c>
+      <c r="EJ11" s="4" t="n">
+        <v>808</v>
+      </c>
+      <c r="EK11" s="4" t="n">
+        <v>802</v>
+      </c>
+      <c r="EL11" s="4" t="n">
+        <v>779</v>
+      </c>
+      <c r="EM11" s="4" t="n">
+        <v>785</v>
+      </c>
+      <c r="EN11" s="4" t="n">
+        <v>693</v>
+      </c>
+      <c r="EO11" s="4" t="n">
+        <v>746</v>
+      </c>
+      <c r="EP11" s="4" t="n">
+        <v>833</v>
+      </c>
+      <c r="EQ11" s="4" t="n">
+        <v>832</v>
+      </c>
+      <c r="ER11" s="4" t="n">
+        <v>877</v>
+      </c>
+      <c r="ES11" s="4" t="n">
+        <v>750</v>
+      </c>
+      <c r="ET11" s="4" t="n">
+        <v>618</v>
+      </c>
+      <c r="EU11" s="4" t="n">
+        <v>637</v>
+      </c>
+      <c r="EV11" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="EW11" s="4" t="n">
+        <v>749</v>
+      </c>
+      <c r="EX11" s="4" t="n">
         <v>743</v>
       </c>
-      <c r="CG11" s="4" t="n">
+      <c r="EY11" s="4" t="n">
+        <v>738</v>
+      </c>
+      <c r="EZ11" s="4" t="n">
+        <v>693</v>
+      </c>
+      <c r="FA11" s="4" t="n">
+        <v>723</v>
+      </c>
+      <c r="FB11" s="4" t="n">
+        <v>641</v>
+      </c>
+      <c r="FC11" s="4" t="n">
+        <v>708</v>
+      </c>
+      <c r="FD11" s="4" t="n">
         <v>785</v>
       </c>
-      <c r="CH11" s="4" t="n">
-        <v>842</v>
-      </c>
-      <c r="CI11" s="4" t="n">
-        <v>809</v>
-      </c>
-      <c r="CJ11" s="4" t="n">
-        <v>804</v>
-      </c>
-      <c r="CK11" s="4" t="n">
-        <v>782</v>
-      </c>
-      <c r="CL11" s="4" t="n">
-        <v>785</v>
-      </c>
-      <c r="CM11" s="4" t="n">
-        <v>693</v>
-      </c>
-      <c r="CN11" s="4" t="n">
-        <v>747</v>
-      </c>
-      <c r="CO11" s="4" t="n">
-        <v>834</v>
-      </c>
-      <c r="CP11" s="4" t="n">
-        <v>835</v>
-      </c>
-      <c r="CQ11" s="4" t="n">
-        <v>882</v>
-      </c>
-      <c r="CR11" s="4" t="n">
-        <v>752</v>
-      </c>
-      <c r="CS11" s="4" t="n">
+      <c r="FE11" s="4" t="n">
+        <v>714</v>
+      </c>
+      <c r="FF11" s="4" t="n">
+        <v>645</v>
+      </c>
+      <c r="FG11" s="4" t="n">
+        <v>609</v>
+      </c>
+      <c r="FH11" s="4" t="n">
+        <v>561</v>
+      </c>
+      <c r="FI11" s="4" t="n">
+        <v>555</v>
+      </c>
+      <c r="FJ11" s="4" t="n">
+        <v>597</v>
+      </c>
+      <c r="FK11" s="4" t="n">
+        <v>680</v>
+      </c>
+      <c r="FL11" s="4" t="n">
+        <v>674</v>
+      </c>
+      <c r="FM11" s="4" t="n">
         <v>618</v>
       </c>
-      <c r="CT11" s="4" t="n">
-        <v>638</v>
-      </c>
-      <c r="CU11" s="4" t="n">
-        <v>702</v>
-      </c>
-      <c r="CV11" s="4" t="n">
-        <v>750</v>
-      </c>
-      <c r="CW11" s="4" t="n">
-        <v>745</v>
-      </c>
-      <c r="CX11" s="4" t="n">
-        <v>740</v>
-      </c>
-      <c r="CY11" s="4" t="n">
-        <v>698</v>
-      </c>
-      <c r="CZ11" s="4" t="n">
-        <v>728</v>
-      </c>
-      <c r="DA11" s="4" t="n">
-        <v>643</v>
-      </c>
-      <c r="DB11" s="4" t="n">
-        <v>714</v>
-      </c>
-      <c r="DC11" s="4" t="n">
-        <v>788</v>
-      </c>
-      <c r="DD11" s="4" t="n">
-        <v>720</v>
-      </c>
-      <c r="DE11" s="4" t="n">
+      <c r="FN11" s="4" t="n">
+        <v>616</v>
+      </c>
+      <c r="FO11" s="4" t="n">
+        <v>633</v>
+      </c>
+      <c r="FP11" s="4" t="n">
+        <v>538</v>
+      </c>
+      <c r="FQ11" s="4" t="n">
+        <v>617</v>
+      </c>
+      <c r="FR11" s="4" t="n">
+        <v>688</v>
+      </c>
+      <c r="FS11" s="4" t="n">
+        <v>661</v>
+      </c>
+      <c r="FT11" s="4" t="n">
+        <v>589</v>
+      </c>
+      <c r="FU11" s="4" t="n">
+        <v>580</v>
+      </c>
+      <c r="FV11" s="4" t="n">
+        <v>550</v>
+      </c>
+      <c r="FW11" s="4" t="n">
+        <v>491</v>
+      </c>
+      <c r="FX11" s="4" t="n">
+        <v>565</v>
+      </c>
+      <c r="FY11" s="4" t="n">
+        <v>601</v>
+      </c>
+      <c r="FZ11" s="4" t="n">
+        <v>609</v>
+      </c>
+      <c r="GA11" s="4" t="n">
+        <v>606</v>
+      </c>
+      <c r="GB11" s="4" t="n">
+        <v>615</v>
+      </c>
+      <c r="GC11" s="4" t="n">
+        <v>573</v>
+      </c>
+      <c r="GD11" s="4" t="n">
+        <v>515</v>
+      </c>
+      <c r="GE11" s="4" t="n">
+        <v>578</v>
+      </c>
+      <c r="GF11" s="4" t="n">
+        <v>649</v>
+      </c>
+      <c r="GG11" s="4" t="n">
+        <v>661</v>
+      </c>
+      <c r="GH11" s="4" t="n">
+        <v>641</v>
+      </c>
+      <c r="GI11" s="4" t="n">
+        <v>633</v>
+      </c>
+      <c r="GJ11" s="4" t="n">
+        <v>673</v>
+      </c>
+      <c r="GK11" s="4" t="n">
+        <v>553</v>
+      </c>
+      <c r="GL11" s="4" t="n">
         <v>647</v>
       </c>
-      <c r="DF11" s="4" t="n">
-        <v>612</v>
-      </c>
-      <c r="DG11" s="4" t="n">
-        <v>563</v>
-      </c>
-      <c r="DH11" s="4" t="n">
-        <v>557</v>
-      </c>
-      <c r="DI11" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="DJ11" s="4" t="n">
-        <v>680</v>
-      </c>
-      <c r="DK11" s="4" t="n">
-        <v>678</v>
-      </c>
-      <c r="DL11" s="4" t="n">
-        <v>622</v>
-      </c>
-      <c r="DM11" s="4" t="n">
-        <v>621</v>
-      </c>
-      <c r="DN11" s="4" t="n">
-        <v>638</v>
-      </c>
-      <c r="DO11" s="4" t="n">
-        <v>542</v>
-      </c>
-      <c r="DP11" s="4" t="n">
-        <v>619</v>
-      </c>
-      <c r="DQ11" s="4" t="n">
-        <v>694</v>
-      </c>
-      <c r="DR11" s="4" t="n">
-        <v>666</v>
-      </c>
-      <c r="DS11" s="4" t="n">
-        <v>593</v>
-      </c>
-      <c r="DT11" s="4" t="n">
-        <v>584</v>
-      </c>
-      <c r="DU11" s="4" t="n">
-        <v>553</v>
-      </c>
-      <c r="DV11" s="4" t="n">
-        <v>492</v>
-      </c>
-      <c r="DW11" s="4" t="n">
-        <v>566</v>
-      </c>
-      <c r="DX11" s="4" t="n">
-        <v>607</v>
-      </c>
-      <c r="DY11" s="4" t="n">
-        <v>615</v>
-      </c>
-      <c r="DZ11" s="4" t="n">
-        <v>610</v>
-      </c>
-      <c r="EA11" s="4" t="n">
-        <v>623</v>
-      </c>
-      <c r="EB11" s="4" t="n">
-        <v>578</v>
-      </c>
-      <c r="EC11" s="4" t="n">
-        <v>516</v>
-      </c>
-      <c r="ED11" s="4" t="n">
-        <v>580</v>
-      </c>
-      <c r="EE11" s="4" t="n">
-        <v>653</v>
-      </c>
-      <c r="EF11" s="4" t="n">
-        <v>665</v>
-      </c>
-      <c r="EG11" s="4" t="n">
-        <v>644</v>
-      </c>
-      <c r="EH11" s="4" t="n">
-        <v>634</v>
-      </c>
-      <c r="EI11" s="4" t="n">
-        <v>676</v>
-      </c>
-      <c r="EJ11" s="4" t="n">
-        <v>554</v>
-      </c>
-      <c r="EK11" s="4" t="n">
-        <v>649</v>
-      </c>
-      <c r="EL11" s="4" t="n">
-        <v>755</v>
-      </c>
-      <c r="EM11" s="4" t="n">
-        <v>812</v>
-      </c>
-      <c r="EN11" s="4" t="n">
-        <v>751</v>
-      </c>
-      <c r="EO11" s="4" t="n">
-        <v>652</v>
-      </c>
-      <c r="EP11" s="4" t="n">
-        <v>429</v>
-      </c>
-      <c r="EQ11" s="4" t="n">
-        <v>465</v>
-      </c>
-      <c r="ER11" s="4" t="n">
-        <v>614</v>
-      </c>
-      <c r="ES11" s="4" t="n">
-        <v>656</v>
-      </c>
-      <c r="ET11" s="4" t="n">
-        <v>875</v>
-      </c>
-      <c r="EU11" s="4" t="n">
-        <v>624</v>
-      </c>
-      <c r="EV11" s="4" t="n">
-        <v>115</v>
-      </c>
-      <c r="EW11" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="EX11" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="EY11" s="4" t="n">
-        <v>86</v>
+      <c r="GM11" s="4" t="n">
+        <v>748</v>
+      </c>
+      <c r="GN11" s="4" t="n">
+        <v>811</v>
+      </c>
+      <c r="GO11" s="4" t="n">
+        <v>744</v>
+      </c>
+      <c r="GP11" s="4" t="n">
+        <v>648</v>
+      </c>
+      <c r="GQ11" s="4" t="n">
+        <v>427</v>
+      </c>
+      <c r="GR11" s="4" t="n">
+        <v>463</v>
+      </c>
+      <c r="GS11" s="4" t="n">
+        <v>609</v>
+      </c>
+      <c r="GT11" s="4" t="n">
+        <v>650</v>
+      </c>
+      <c r="GU11" s="4" t="n">
+        <v>864</v>
+      </c>
+      <c r="GV11" s="4" t="n">
+        <v>620</v>
+      </c>
+      <c r="GW11" s="4" t="n">
+        <v>113</v>
+      </c>
+      <c r="GX11" s="4" t="n">
+        <v>106</v>
+      </c>
+      <c r="GY11" s="4" t="n">
+        <v>97</v>
+      </c>
+      <c r="GZ11" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="HA11" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="HB11" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="HC11" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="HD11" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="HE11" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="HF11" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="HG11" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="HH11" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="HI11" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="HJ11" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="HK11" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="HL11" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="HM11" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="HN11" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="HO11" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="HP11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="HQ11" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="HR11" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="HS11" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="HT11" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="HU11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="HV11" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="HW11" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="HX11" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="HY11" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="HZ11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="IA11" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="IB11" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="IC11" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="ID11" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="IE11" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="IF11" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="IG11" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="IH11" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="II11" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="IJ11" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="IK11" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="IL11" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="IM11" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="IN11" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="IO11" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="IP11" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="IQ11" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="IR11" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="IS11" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="IT11" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="IU11" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="IV11" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="IW11" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="IX11" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="IY11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="IZ11" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="JA11" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="JB11" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="JC11" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="JD11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE11" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="JF11" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="JG11" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="JH11" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="JI11" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ11" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="JK11" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="JL11" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="JM11" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="JN11" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="JO11" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="JP11" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="JQ11" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="JR11" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="JS11" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="JT11" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="JU11" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="JV11" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="JW11" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="JX11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="JY11" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="JZ11" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="KA11" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="KB11" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="KC11" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="KD11" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="KE11" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="KF11" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="KG11" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="KH11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="KI11" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="KJ11" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="KK11" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="KL11" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="KM11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="KN11" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="KO11" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="KP11" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="KQ11" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="KR11" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="KS11" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="KT11" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="KU11" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="KV11" s="4" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -11763,7 +16353,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:EY1"/>
+    <mergeCell ref="A1:KV1"/>
     <mergeCell ref="A12:EY12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16302,73 +20892,73 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>5713</v>
+        <v>5707</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>6181</v>
+        <v>6178</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>6141</v>
+        <v>6134</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>6170</v>
+        <v>6160</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>5898</v>
+        <v>5883</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>5881</v>
+        <v>5872</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>6123</v>
+        <v>6110</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>6179</v>
+        <v>6161</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>6399</v>
+        <v>6380</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>6321</v>
+        <v>6305</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>5955</v>
+        <v>5936</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>5561</v>
+        <v>5541</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>5528</v>
+        <v>5516</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>4891</v>
+        <v>4878</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>4852</v>
+        <v>4825</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>4321</v>
+        <v>4301</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>4336</v>
+        <v>4306</v>
       </c>
       <c r="T11" s="4" t="n">
-        <v>4066</v>
+        <v>4037</v>
       </c>
       <c r="U11" s="4" t="n">
-        <v>4270</v>
+        <v>4250</v>
       </c>
       <c r="V11" s="4" t="n">
-        <v>4849</v>
+        <v>4824</v>
       </c>
       <c r="W11" s="4" t="n">
-        <v>3778</v>
+        <v>3746</v>
       </c>
       <c r="X11" s="4" t="n">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
@@ -16596,22 +21186,22 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>22011</v>
+        <v>21993</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>26722</v>
+        <v>26664</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>26059</v>
+        <v>25979</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>21391</v>
+        <v>21308</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>17230</v>
+        <v>17128</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>2566</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="23">
@@ -16709,7 +21299,7 @@
         </is>
       </c>
       <c r="B33" s="4" t="n">
-        <v>115979</v>
+        <v>115603</v>
       </c>
     </row>
     <row r="34">
